--- a/documentos/Codigo de ConceptosAFIP - EMPRESA.xlsx
+++ b/documentos/Codigo de ConceptosAFIP - EMPRESA.xlsx
@@ -5,18 +5,18 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="G:\datos\Mis documentos\GitHub\LibroSueldoDigital\documentos\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\JAVIER\Documents\GitHub\LibroSueldoDigital\documentos\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0610FF48-7BBB-4144-8DF5-9619BB3810B1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CDB3543D-AB6A-4FBA-856B-A0C77356BDFD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="20280" yWindow="-120" windowWidth="15600" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Hoja1!$A$4:$W$114</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Hoja1!$A$4:$W$116</definedName>
   </definedNames>
   <calcPr calcId="181029"/>
   <extLst>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="185" uniqueCount="139">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="185" uniqueCount="143">
   <si>
     <t>Tipo de concepto</t>
   </si>
@@ -85,6 +85,12 @@
     <t>Sueldo anual complementario</t>
   </si>
   <si>
+    <t>SAC 1er semestre</t>
+  </si>
+  <si>
+    <t>SAC 2do semestre</t>
+  </si>
+  <si>
     <t>SAC proporcional</t>
   </si>
   <si>
@@ -271,9 +277,6 @@
     <t>Importes no remunerativos especiales</t>
   </si>
   <si>
-    <t>Rango desde 551000 a 559999</t>
-  </si>
-  <si>
     <t>Redondeo (No Remunerativo)</t>
   </si>
   <si>
@@ -320,6 +323,9 @@
   </si>
   <si>
     <t>Código de concepto Empresa</t>
+  </si>
+  <si>
+    <t>Débito Crédito</t>
   </si>
   <si>
     <t>C</t>
@@ -417,6 +423,9 @@
     <t>SAC sobre preaviso</t>
   </si>
   <si>
+    <t>c</t>
+  </si>
+  <si>
     <t>Fondo de salud Publica - Chaco</t>
   </si>
   <si>
@@ -438,22 +447,25 @@
     <t>MERCADERIAS</t>
   </si>
   <si>
+    <t>d</t>
+  </si>
+  <si>
     <t xml:space="preserve">DIA ADICIONAL </t>
   </si>
   <si>
     <t>DIA ADICIONAL FERIADO</t>
   </si>
   <si>
-    <t>UATRE S/ASIG NO REMUNERATIVA</t>
-  </si>
-  <si>
-    <t>OSPRERA S/ASIG NO REMUNERATIVA</t>
-  </si>
-  <si>
-    <t>ANSSAL S/ASIG NO REMUNERATICAS</t>
-  </si>
-  <si>
-    <t>Débito CréDito</t>
+    <t>UATRE s/asig no remunerativa</t>
+  </si>
+  <si>
+    <t>OSPRERA s/asig no remunerativa</t>
+  </si>
+  <si>
+    <t>ANSSAL s/asig no remuneraticas</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> </t>
   </si>
 </sst>
 </file>
@@ -727,6 +739,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="4" fillId="7" borderId="2" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -821,9 +834,6 @@
     <xf numFmtId="0" fontId="8" fillId="6" borderId="3" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="8" borderId="2" xfId="2" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -886,7 +896,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
+        <a:latin typeface="Calibri Light"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="游ゴシック Light"/>
@@ -938,7 +948,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="游ゴシック"/>
@@ -1141,18 +1151,18 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <sheetPr filterMode="1"/>
-  <dimension ref="A2:AE120"/>
+  <dimension ref="A2:AE122"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="4" ySplit="4" topLeftCell="E22" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="4" ySplit="4" topLeftCell="L21" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="E1" sqref="E1"/>
       <selection pane="bottomLeft" activeCell="A5" sqref="A5"/>
-      <selection pane="bottomRight" activeCell="E99" sqref="E99"/>
+      <selection pane="bottomRight" activeCell="D27" sqref="D27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="14.28515625" customWidth="1"/>
+    <col min="1" max="1" width="9.140625" customWidth="1"/>
     <col min="2" max="2" width="13.85546875" style="10" customWidth="1"/>
     <col min="3" max="3" width="40.85546875" style="19" customWidth="1"/>
     <col min="4" max="4" width="13.42578125" style="10" customWidth="1"/>
@@ -1224,100 +1234,100 @@
       </c>
     </row>
     <row r="3" spans="1:23" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="63" t="s">
-        <v>0</v>
-      </c>
-      <c r="B3" s="63" t="s">
-        <v>1</v>
-      </c>
-      <c r="C3" s="65" t="s">
+      <c r="A3" s="64" t="s">
+        <v>0</v>
+      </c>
+      <c r="B3" s="64" t="s">
+        <v>1</v>
+      </c>
+      <c r="C3" s="66" t="s">
         <v>2</v>
       </c>
-      <c r="D3" s="63" t="s">
-        <v>94</v>
-      </c>
-      <c r="E3" s="63" t="s">
-        <v>138</v>
-      </c>
-      <c r="F3" s="67" t="s">
-        <v>97</v>
-      </c>
-      <c r="G3" s="61" t="s">
-        <v>98</v>
-      </c>
-      <c r="H3" s="61" t="s">
+      <c r="D3" s="64" t="s">
+        <v>95</v>
+      </c>
+      <c r="E3" s="64" t="s">
+        <v>96</v>
+      </c>
+      <c r="F3" s="68" t="s">
         <v>99</v>
       </c>
-      <c r="I3" s="61" t="s">
+      <c r="G3" s="62" t="s">
         <v>100</v>
       </c>
-      <c r="J3" s="61" t="s">
+      <c r="H3" s="62" t="s">
         <v>101</v>
       </c>
-      <c r="K3" s="61" t="s">
+      <c r="I3" s="62" t="s">
         <v>102</v>
       </c>
-      <c r="L3" s="61" t="s">
+      <c r="J3" s="62" t="s">
         <v>103</v>
       </c>
-      <c r="M3" s="61" t="s">
+      <c r="K3" s="62" t="s">
         <v>104</v>
       </c>
-      <c r="N3" s="61" t="s">
+      <c r="L3" s="62" t="s">
         <v>105</v>
       </c>
-      <c r="O3" s="61" t="s">
+      <c r="M3" s="62" t="s">
         <v>106</v>
       </c>
-      <c r="P3" s="61" t="s">
+      <c r="N3" s="62" t="s">
         <v>107</v>
       </c>
-      <c r="Q3" s="61" t="s">
+      <c r="O3" s="62" t="s">
         <v>108</v>
       </c>
-      <c r="R3" s="61" t="s">
+      <c r="P3" s="62" t="s">
         <v>109</v>
       </c>
-      <c r="S3" s="61" t="s">
+      <c r="Q3" s="62" t="s">
         <v>110</v>
       </c>
-      <c r="T3" s="61" t="s">
-        <v>130</v>
-      </c>
-      <c r="U3" s="61" t="s">
-        <v>131</v>
-      </c>
-      <c r="V3" s="61" t="s">
+      <c r="R3" s="62" t="s">
         <v>111</v>
       </c>
-      <c r="W3" s="61" t="s">
+      <c r="S3" s="62" t="s">
         <v>112</v>
       </c>
+      <c r="T3" s="62" t="s">
+        <v>133</v>
+      </c>
+      <c r="U3" s="62" t="s">
+        <v>134</v>
+      </c>
+      <c r="V3" s="62" t="s">
+        <v>113</v>
+      </c>
+      <c r="W3" s="62" t="s">
+        <v>114</v>
+      </c>
     </row>
     <row r="4" spans="1:23" ht="72" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="64"/>
-      <c r="B4" s="64"/>
-      <c r="C4" s="66"/>
-      <c r="D4" s="64"/>
-      <c r="E4" s="64"/>
-      <c r="F4" s="68"/>
-      <c r="G4" s="62"/>
-      <c r="H4" s="62"/>
-      <c r="I4" s="62"/>
-      <c r="J4" s="62"/>
-      <c r="K4" s="62"/>
-      <c r="L4" s="62"/>
-      <c r="M4" s="62"/>
-      <c r="N4" s="62"/>
-      <c r="O4" s="62"/>
-      <c r="P4" s="62"/>
-      <c r="Q4" s="62"/>
-      <c r="R4" s="62"/>
-      <c r="S4" s="62"/>
-      <c r="T4" s="62"/>
-      <c r="U4" s="62"/>
-      <c r="V4" s="62"/>
-      <c r="W4" s="62"/>
+      <c r="A4" s="65"/>
+      <c r="B4" s="65"/>
+      <c r="C4" s="67"/>
+      <c r="D4" s="65"/>
+      <c r="E4" s="65"/>
+      <c r="F4" s="69"/>
+      <c r="G4" s="63"/>
+      <c r="H4" s="63"/>
+      <c r="I4" s="63"/>
+      <c r="J4" s="63"/>
+      <c r="K4" s="63"/>
+      <c r="L4" s="63"/>
+      <c r="M4" s="63"/>
+      <c r="N4" s="63"/>
+      <c r="O4" s="63"/>
+      <c r="P4" s="63"/>
+      <c r="Q4" s="63"/>
+      <c r="R4" s="63"/>
+      <c r="S4" s="63"/>
+      <c r="T4" s="63"/>
+      <c r="U4" s="63"/>
+      <c r="V4" s="63"/>
+      <c r="W4" s="63"/>
     </row>
     <row r="5" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A5" s="2" t="s">
@@ -1333,11 +1343,9 @@
         <v>1</v>
       </c>
       <c r="E5" s="16" t="s">
-        <v>95</v>
-      </c>
-      <c r="F5" s="22">
-        <v>1</v>
-      </c>
+        <v>97</v>
+      </c>
+      <c r="F5" s="22"/>
       <c r="G5" s="16">
         <v>1</v>
       </c>
@@ -1362,7 +1370,7 @@
       <c r="N5" s="16">
         <v>1</v>
       </c>
-      <c r="O5" s="32">
+      <c r="O5" s="33">
         <v>1</v>
       </c>
       <c r="P5" s="16">
@@ -1400,9 +1408,7 @@
       </c>
       <c r="D6" s="7"/>
       <c r="E6" s="16"/>
-      <c r="F6" s="17">
-        <v>1</v>
-      </c>
+      <c r="F6" s="17"/>
       <c r="G6" s="17"/>
       <c r="H6" s="17"/>
       <c r="I6" s="17"/>
@@ -1431,9 +1437,7 @@
       </c>
       <c r="D7" s="7"/>
       <c r="E7" s="16"/>
-      <c r="F7" s="22">
-        <v>1</v>
-      </c>
+      <c r="F7" s="17"/>
       <c r="G7" s="17"/>
       <c r="H7" s="17"/>
       <c r="I7" s="17"/>
@@ -1462,9 +1466,7 @@
       </c>
       <c r="D8" s="7"/>
       <c r="E8" s="16"/>
-      <c r="F8" s="17">
-        <v>1</v>
-      </c>
+      <c r="F8" s="17"/>
       <c r="G8" s="17"/>
       <c r="H8" s="17"/>
       <c r="I8" s="17"/>
@@ -1493,9 +1495,7 @@
       </c>
       <c r="D9" s="7"/>
       <c r="E9" s="16"/>
-      <c r="F9" s="22">
-        <v>1</v>
-      </c>
+      <c r="F9" s="17"/>
       <c r="G9" s="17"/>
       <c r="H9" s="17"/>
       <c r="I9" s="17"/>
@@ -1524,9 +1524,7 @@
       </c>
       <c r="D10" s="7"/>
       <c r="E10" s="16"/>
-      <c r="F10" s="17">
-        <v>1</v>
-      </c>
+      <c r="F10" s="17"/>
       <c r="G10" s="17"/>
       <c r="H10" s="17"/>
       <c r="I10" s="17"/>
@@ -1555,9 +1553,7 @@
       </c>
       <c r="D11" s="7"/>
       <c r="E11" s="16"/>
-      <c r="F11" s="22">
-        <v>1</v>
-      </c>
+      <c r="F11" s="17"/>
       <c r="G11" s="17"/>
       <c r="H11" s="17"/>
       <c r="I11" s="17"/>
@@ -1582,17 +1578,15 @@
         <v>110007</v>
       </c>
       <c r="C12" s="20" t="s">
-        <v>133</v>
+        <v>137</v>
       </c>
       <c r="D12" s="7">
         <v>6</v>
       </c>
       <c r="E12" s="16" t="s">
-        <v>95</v>
-      </c>
-      <c r="F12" s="17">
-        <v>1</v>
-      </c>
+        <v>128</v>
+      </c>
+      <c r="F12" s="22"/>
       <c r="G12" s="16">
         <v>1</v>
       </c>
@@ -1617,7 +1611,7 @@
       <c r="N12" s="16">
         <v>1</v>
       </c>
-      <c r="O12" s="32">
+      <c r="O12" s="33">
         <v>1</v>
       </c>
       <c r="P12" s="16">
@@ -1655,9 +1649,7 @@
       </c>
       <c r="D13" s="7"/>
       <c r="E13" s="16"/>
-      <c r="F13" s="22">
-        <v>1</v>
-      </c>
+      <c r="F13" s="17"/>
       <c r="G13" s="17"/>
       <c r="H13" s="17"/>
       <c r="I13" s="17"/>
@@ -1686,9 +1678,7 @@
       </c>
       <c r="D14" s="7"/>
       <c r="E14" s="16"/>
-      <c r="F14" s="17">
-        <v>1</v>
-      </c>
+      <c r="F14" s="17"/>
       <c r="G14" s="17"/>
       <c r="H14" s="17"/>
       <c r="I14" s="17"/>
@@ -1713,17 +1703,15 @@
         <v>111000</v>
       </c>
       <c r="C15" s="24" t="s">
-        <v>117</v>
+        <v>119</v>
       </c>
       <c r="D15" s="7">
         <v>5</v>
       </c>
       <c r="E15" s="16" t="s">
-        <v>95</v>
-      </c>
-      <c r="F15" s="22">
-        <v>1</v>
-      </c>
+        <v>128</v>
+      </c>
+      <c r="F15" s="22"/>
       <c r="G15" s="16">
         <v>1</v>
       </c>
@@ -1748,7 +1736,7 @@
       <c r="N15" s="16">
         <v>1</v>
       </c>
-      <c r="O15" s="32">
+      <c r="O15" s="33">
         <v>1</v>
       </c>
       <c r="P15" s="16">
@@ -1782,17 +1770,15 @@
         <v>111001</v>
       </c>
       <c r="C16" s="24" t="s">
-        <v>134</v>
+        <v>138</v>
       </c>
       <c r="D16" s="7">
         <v>4</v>
       </c>
       <c r="E16" s="16" t="s">
-        <v>95</v>
-      </c>
-      <c r="F16" s="17">
-        <v>1</v>
-      </c>
+        <v>128</v>
+      </c>
+      <c r="F16" s="22"/>
       <c r="G16" s="16">
         <v>1</v>
       </c>
@@ -1817,7 +1803,7 @@
       <c r="N16" s="16">
         <v>1</v>
       </c>
-      <c r="O16" s="32">
+      <c r="O16" s="33">
         <v>1</v>
       </c>
       <c r="P16" s="16">
@@ -1851,17 +1837,15 @@
         <v>111002</v>
       </c>
       <c r="C17" s="23" t="s">
-        <v>118</v>
+        <v>120</v>
       </c>
       <c r="D17" s="7">
         <v>36</v>
       </c>
       <c r="E17" s="16" t="s">
-        <v>95</v>
-      </c>
-      <c r="F17" s="22">
-        <v>1</v>
-      </c>
+        <v>128</v>
+      </c>
+      <c r="F17" s="22"/>
       <c r="G17" s="16">
         <v>1</v>
       </c>
@@ -1886,7 +1870,7 @@
       <c r="N17" s="16">
         <v>1</v>
       </c>
-      <c r="O17" s="32">
+      <c r="O17" s="33">
         <v>1</v>
       </c>
       <c r="P17" s="16">
@@ -1920,17 +1904,15 @@
         <v>111003</v>
       </c>
       <c r="C18" s="24" t="s">
-        <v>119</v>
+        <v>121</v>
       </c>
       <c r="D18" s="7">
         <v>39</v>
       </c>
       <c r="E18" s="16" t="s">
-        <v>95</v>
-      </c>
-      <c r="F18" s="17">
-        <v>1</v>
-      </c>
+        <v>128</v>
+      </c>
+      <c r="F18" s="22"/>
       <c r="G18" s="16">
         <v>1</v>
       </c>
@@ -1955,7 +1937,7 @@
       <c r="N18" s="16">
         <v>1</v>
       </c>
-      <c r="O18" s="32">
+      <c r="O18" s="33">
         <v>1</v>
       </c>
       <c r="P18" s="16">
@@ -1989,17 +1971,15 @@
         <v>111004</v>
       </c>
       <c r="C19" s="24" t="s">
-        <v>120</v>
+        <v>122</v>
       </c>
       <c r="D19" s="7">
         <v>10</v>
       </c>
       <c r="E19" s="16" t="s">
-        <v>95</v>
-      </c>
-      <c r="F19" s="22">
-        <v>1</v>
-      </c>
+        <v>128</v>
+      </c>
+      <c r="F19" s="22"/>
       <c r="G19" s="16">
         <v>1</v>
       </c>
@@ -2024,7 +2004,7 @@
       <c r="N19" s="16">
         <v>1</v>
       </c>
-      <c r="O19" s="32">
+      <c r="O19" s="33">
         <v>1</v>
       </c>
       <c r="P19" s="16">
@@ -2058,17 +2038,15 @@
         <v>111005</v>
       </c>
       <c r="C20" s="24" t="s">
-        <v>121</v>
+        <v>123</v>
       </c>
       <c r="D20" s="7">
         <v>11</v>
       </c>
       <c r="E20" s="16" t="s">
-        <v>95</v>
-      </c>
-      <c r="F20" s="17">
-        <v>1</v>
-      </c>
+        <v>128</v>
+      </c>
+      <c r="F20" s="22"/>
       <c r="G20" s="16">
         <v>1</v>
       </c>
@@ -2093,7 +2071,7 @@
       <c r="N20" s="16">
         <v>1</v>
       </c>
-      <c r="O20" s="32">
+      <c r="O20" s="33">
         <v>1</v>
       </c>
       <c r="P20" s="16">
@@ -2127,17 +2105,15 @@
         <v>111006</v>
       </c>
       <c r="C21" s="24" t="s">
-        <v>127</v>
+        <v>130</v>
       </c>
       <c r="D21" s="7">
         <v>3</v>
       </c>
       <c r="E21" s="16" t="s">
-        <v>128</v>
-      </c>
-      <c r="F21" s="22">
-        <v>1</v>
-      </c>
+        <v>131</v>
+      </c>
+      <c r="F21" s="22"/>
       <c r="G21" s="16">
         <v>1</v>
       </c>
@@ -2162,7 +2138,7 @@
       <c r="N21" s="16">
         <v>1</v>
       </c>
-      <c r="O21" s="32">
+      <c r="O21" s="33">
         <v>1</v>
       </c>
       <c r="P21" s="16">
@@ -2196,17 +2172,15 @@
         <v>111007</v>
       </c>
       <c r="C22" s="23" t="s">
-        <v>129</v>
+        <v>132</v>
       </c>
       <c r="D22" s="7">
         <v>8</v>
       </c>
       <c r="E22" s="16" t="s">
-        <v>96</v>
-      </c>
-      <c r="F22" s="17">
-        <v>1</v>
-      </c>
+        <v>98</v>
+      </c>
+      <c r="F22" s="22"/>
       <c r="G22" s="16">
         <v>1</v>
       </c>
@@ -2231,7 +2205,7 @@
       <c r="N22" s="16">
         <v>1</v>
       </c>
-      <c r="O22" s="32">
+      <c r="O22" s="33">
         <v>1</v>
       </c>
       <c r="P22" s="16">
@@ -2269,9 +2243,7 @@
       </c>
       <c r="D23" s="7"/>
       <c r="E23" s="16"/>
-      <c r="F23" s="22">
-        <v>1</v>
-      </c>
+      <c r="F23" s="17"/>
       <c r="G23" s="17"/>
       <c r="H23" s="17"/>
       <c r="I23" s="17"/>
@@ -2302,11 +2274,9 @@
         <v>37</v>
       </c>
       <c r="E24" s="16" t="s">
-        <v>95</v>
-      </c>
-      <c r="F24" s="17">
-        <v>1</v>
-      </c>
+        <v>128</v>
+      </c>
+      <c r="F24" s="22"/>
       <c r="G24" s="16">
         <v>1</v>
       </c>
@@ -2331,7 +2301,7 @@
       <c r="N24" s="16">
         <v>1</v>
       </c>
-      <c r="O24" s="32">
+      <c r="O24" s="33">
         <v>1</v>
       </c>
       <c r="P24" s="16">
@@ -2359,88 +2329,46 @@
         <v>0</v>
       </c>
     </row>
-    <row r="25" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:23" hidden="1" x14ac:dyDescent="0.25">
       <c r="A25" s="4"/>
       <c r="B25" s="12">
         <v>120001</v>
       </c>
-      <c r="C25" s="23" t="s">
+      <c r="C25" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="D25" s="7">
-        <v>38</v>
-      </c>
-      <c r="E25" s="16" t="s">
-        <v>95</v>
-      </c>
-      <c r="F25" s="22">
-        <v>1</v>
-      </c>
-      <c r="G25" s="16">
-        <v>1</v>
-      </c>
-      <c r="H25" s="16">
-        <v>1</v>
-      </c>
-      <c r="I25" s="16">
-        <v>1</v>
-      </c>
-      <c r="J25" s="16">
-        <v>1</v>
-      </c>
-      <c r="K25" s="16">
-        <v>1</v>
-      </c>
-      <c r="L25" s="16">
-        <v>1</v>
-      </c>
-      <c r="M25" s="16">
-        <v>1</v>
-      </c>
-      <c r="N25" s="16">
-        <v>1</v>
-      </c>
-      <c r="O25" s="32">
-        <v>1</v>
-      </c>
-      <c r="P25" s="16">
-        <v>1</v>
-      </c>
-      <c r="Q25" s="16">
-        <v>1</v>
-      </c>
-      <c r="R25" s="16">
-        <v>1</v>
-      </c>
-      <c r="S25" s="16">
-        <v>1</v>
-      </c>
-      <c r="T25" s="16">
-        <v>0</v>
-      </c>
-      <c r="U25" s="16">
-        <v>0</v>
-      </c>
-      <c r="V25" s="16">
-        <v>0</v>
-      </c>
-      <c r="W25" s="16">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="26" spans="1:23" ht="38.25" hidden="1" x14ac:dyDescent="0.25">
+      <c r="D25" s="7"/>
+      <c r="E25" s="16"/>
+      <c r="F25" s="17"/>
+      <c r="G25" s="17"/>
+      <c r="H25" s="17"/>
+      <c r="I25" s="17"/>
+      <c r="J25" s="17"/>
+      <c r="K25" s="17"/>
+      <c r="L25" s="17"/>
+      <c r="M25" s="17"/>
+      <c r="N25" s="17"/>
+      <c r="O25" s="17"/>
+      <c r="P25" s="17"/>
+      <c r="Q25" s="17"/>
+      <c r="R25" s="17"/>
+      <c r="S25" s="17"/>
+      <c r="T25" s="17"/>
+      <c r="U25" s="17"/>
+      <c r="V25" s="17"/>
+      <c r="W25" s="17"/>
+    </row>
+    <row r="26" spans="1:23" hidden="1" x14ac:dyDescent="0.25">
       <c r="A26" s="4"/>
-      <c r="B26" s="13" t="s">
+      <c r="B26" s="12">
+        <v>120002</v>
+      </c>
+      <c r="C26" s="3" t="s">
         <v>17</v>
-      </c>
-      <c r="C26" s="3" t="s">
-        <v>14</v>
       </c>
       <c r="D26" s="7"/>
       <c r="E26" s="16"/>
-      <c r="F26" s="17">
-        <v>1</v>
-      </c>
+      <c r="F26" s="17"/>
       <c r="G26" s="17"/>
       <c r="H26" s="17"/>
       <c r="I26" s="17"/>
@@ -2459,50 +2387,84 @@
       <c r="V26" s="17"/>
       <c r="W26" s="17"/>
     </row>
-    <row r="27" spans="1:23" hidden="1" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A27" s="4"/>
-      <c r="B27" s="11">
-        <v>130000</v>
-      </c>
-      <c r="C27" s="3" t="s">
+      <c r="B27" s="12">
+        <v>120003</v>
+      </c>
+      <c r="C27" s="23" t="s">
         <v>18</v>
       </c>
-      <c r="D27" s="7"/>
-      <c r="E27" s="16"/>
-      <c r="F27" s="22">
-        <v>1</v>
-      </c>
-      <c r="G27" s="17"/>
-      <c r="H27" s="17"/>
-      <c r="I27" s="17"/>
-      <c r="J27" s="17"/>
-      <c r="K27" s="17"/>
-      <c r="L27" s="17"/>
-      <c r="M27" s="17"/>
-      <c r="N27" s="17"/>
-      <c r="O27" s="17"/>
-      <c r="P27" s="17"/>
-      <c r="Q27" s="17"/>
-      <c r="R27" s="17"/>
-      <c r="S27" s="17"/>
-      <c r="T27" s="17"/>
-      <c r="U27" s="17"/>
-      <c r="V27" s="17"/>
-      <c r="W27" s="17"/>
-    </row>
-    <row r="28" spans="1:23" hidden="1" x14ac:dyDescent="0.25">
+      <c r="D27" s="7">
+        <v>38</v>
+      </c>
+      <c r="E27" s="16" t="s">
+        <v>128</v>
+      </c>
+      <c r="F27" s="22"/>
+      <c r="G27" s="16">
+        <v>1</v>
+      </c>
+      <c r="H27" s="16">
+        <v>1</v>
+      </c>
+      <c r="I27" s="16">
+        <v>1</v>
+      </c>
+      <c r="J27" s="16">
+        <v>1</v>
+      </c>
+      <c r="K27" s="16">
+        <v>1</v>
+      </c>
+      <c r="L27" s="16">
+        <v>1</v>
+      </c>
+      <c r="M27" s="16">
+        <v>1</v>
+      </c>
+      <c r="N27" s="16">
+        <v>1</v>
+      </c>
+      <c r="O27" s="33">
+        <v>1</v>
+      </c>
+      <c r="P27" s="16">
+        <v>1</v>
+      </c>
+      <c r="Q27" s="16">
+        <v>1</v>
+      </c>
+      <c r="R27" s="16">
+        <v>1</v>
+      </c>
+      <c r="S27" s="16">
+        <v>1</v>
+      </c>
+      <c r="T27" s="16">
+        <v>0</v>
+      </c>
+      <c r="U27" s="16">
+        <v>0</v>
+      </c>
+      <c r="V27" s="16">
+        <v>0</v>
+      </c>
+      <c r="W27" s="16">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="1:23" ht="38.25" hidden="1" x14ac:dyDescent="0.25">
       <c r="A28" s="4"/>
-      <c r="B28" s="12">
-        <v>130001</v>
+      <c r="B28" s="13" t="s">
+        <v>19</v>
       </c>
       <c r="C28" s="3" t="s">
-        <v>19</v>
+        <v>14</v>
       </c>
       <c r="D28" s="7"/>
       <c r="E28" s="16"/>
-      <c r="F28" s="17">
-        <v>1</v>
-      </c>
+      <c r="F28" s="17"/>
       <c r="G28" s="17"/>
       <c r="H28" s="17"/>
       <c r="I28" s="17"/>
@@ -2523,17 +2485,15 @@
     </row>
     <row r="29" spans="1:23" hidden="1" x14ac:dyDescent="0.25">
       <c r="A29" s="4"/>
-      <c r="B29" s="12">
-        <v>130002</v>
+      <c r="B29" s="11">
+        <v>130000</v>
       </c>
       <c r="C29" s="3" t="s">
         <v>20</v>
       </c>
       <c r="D29" s="7"/>
       <c r="E29" s="16"/>
-      <c r="F29" s="22">
-        <v>1</v>
-      </c>
+      <c r="F29" s="17"/>
       <c r="G29" s="17"/>
       <c r="H29" s="17"/>
       <c r="I29" s="17"/>
@@ -2555,16 +2515,14 @@
     <row r="30" spans="1:23" hidden="1" x14ac:dyDescent="0.25">
       <c r="A30" s="4"/>
       <c r="B30" s="12">
-        <v>130003</v>
+        <v>130001</v>
       </c>
       <c r="C30" s="3" t="s">
         <v>21</v>
       </c>
       <c r="D30" s="7"/>
       <c r="E30" s="16"/>
-      <c r="F30" s="17">
-        <v>1</v>
-      </c>
+      <c r="F30" s="17"/>
       <c r="G30" s="17"/>
       <c r="H30" s="17"/>
       <c r="I30" s="17"/>
@@ -2583,19 +2541,17 @@
       <c r="V30" s="17"/>
       <c r="W30" s="17"/>
     </row>
-    <row r="31" spans="1:23" ht="38.25" hidden="1" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:23" hidden="1" x14ac:dyDescent="0.25">
       <c r="A31" s="4"/>
-      <c r="B31" s="13" t="s">
+      <c r="B31" s="12">
+        <v>130002</v>
+      </c>
+      <c r="C31" s="3" t="s">
         <v>22</v>
-      </c>
-      <c r="C31" s="3" t="s">
-        <v>23</v>
       </c>
       <c r="D31" s="7"/>
       <c r="E31" s="16"/>
-      <c r="F31" s="22">
-        <v>1</v>
-      </c>
+      <c r="F31" s="17"/>
       <c r="G31" s="17"/>
       <c r="H31" s="17"/>
       <c r="I31" s="17"/>
@@ -2616,17 +2572,15 @@
     </row>
     <row r="32" spans="1:23" hidden="1" x14ac:dyDescent="0.25">
       <c r="A32" s="4"/>
-      <c r="B32" s="11">
-        <v>140000</v>
+      <c r="B32" s="12">
+        <v>130003</v>
       </c>
       <c r="C32" s="3" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="D32" s="7"/>
       <c r="E32" s="16"/>
-      <c r="F32" s="17">
-        <v>1</v>
-      </c>
+      <c r="F32" s="17"/>
       <c r="G32" s="17"/>
       <c r="H32" s="17"/>
       <c r="I32" s="17"/>
@@ -2648,16 +2602,14 @@
     <row r="33" spans="1:23" ht="38.25" hidden="1" x14ac:dyDescent="0.25">
       <c r="A33" s="4"/>
       <c r="B33" s="13" t="s">
+        <v>24</v>
+      </c>
+      <c r="C33" s="3" t="s">
         <v>25</v>
-      </c>
-      <c r="C33" s="3" t="s">
-        <v>14</v>
       </c>
       <c r="D33" s="7"/>
       <c r="E33" s="16"/>
-      <c r="F33" s="22">
-        <v>1</v>
-      </c>
+      <c r="F33" s="17"/>
       <c r="G33" s="17"/>
       <c r="H33" s="17"/>
       <c r="I33" s="17"/>
@@ -2679,16 +2631,14 @@
     <row r="34" spans="1:23" hidden="1" x14ac:dyDescent="0.25">
       <c r="A34" s="4"/>
       <c r="B34" s="11">
-        <v>150000</v>
+        <v>140000</v>
       </c>
       <c r="C34" s="3" t="s">
         <v>26</v>
       </c>
       <c r="D34" s="7"/>
       <c r="E34" s="16"/>
-      <c r="F34" s="17">
-        <v>1</v>
-      </c>
+      <c r="F34" s="17"/>
       <c r="G34" s="17"/>
       <c r="H34" s="17"/>
       <c r="I34" s="17"/>
@@ -2717,9 +2667,7 @@
       </c>
       <c r="D35" s="7"/>
       <c r="E35" s="16"/>
-      <c r="F35" s="22">
-        <v>1</v>
-      </c>
+      <c r="F35" s="17"/>
       <c r="G35" s="17"/>
       <c r="H35" s="17"/>
       <c r="I35" s="17"/>
@@ -2741,16 +2689,14 @@
     <row r="36" spans="1:23" hidden="1" x14ac:dyDescent="0.25">
       <c r="A36" s="4"/>
       <c r="B36" s="11">
-        <v>160000</v>
+        <v>150000</v>
       </c>
       <c r="C36" s="3" t="s">
         <v>28</v>
       </c>
       <c r="D36" s="7"/>
       <c r="E36" s="16"/>
-      <c r="F36" s="17">
-        <v>1</v>
-      </c>
+      <c r="F36" s="17"/>
       <c r="G36" s="17"/>
       <c r="H36" s="17"/>
       <c r="I36" s="17"/>
@@ -2769,19 +2715,17 @@
       <c r="V36" s="17"/>
       <c r="W36" s="17"/>
     </row>
-    <row r="37" spans="1:23" hidden="1" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:23" ht="38.25" hidden="1" x14ac:dyDescent="0.25">
       <c r="A37" s="4"/>
-      <c r="B37" s="12">
-        <v>160001</v>
+      <c r="B37" s="13" t="s">
+        <v>29</v>
       </c>
       <c r="C37" s="3" t="s">
-        <v>29</v>
+        <v>14</v>
       </c>
       <c r="D37" s="7"/>
       <c r="E37" s="16"/>
-      <c r="F37" s="22">
-        <v>1</v>
-      </c>
+      <c r="F37" s="17"/>
       <c r="G37" s="17"/>
       <c r="H37" s="17"/>
       <c r="I37" s="17"/>
@@ -2802,17 +2746,15 @@
     </row>
     <row r="38" spans="1:23" hidden="1" x14ac:dyDescent="0.25">
       <c r="A38" s="4"/>
-      <c r="B38" s="12">
-        <v>160002</v>
+      <c r="B38" s="11">
+        <v>160000</v>
       </c>
       <c r="C38" s="3" t="s">
         <v>30</v>
       </c>
       <c r="D38" s="7"/>
       <c r="E38" s="16"/>
-      <c r="F38" s="17">
-        <v>1</v>
-      </c>
+      <c r="F38" s="17"/>
       <c r="G38" s="17"/>
       <c r="H38" s="17"/>
       <c r="I38" s="17"/>
@@ -2834,16 +2776,14 @@
     <row r="39" spans="1:23" hidden="1" x14ac:dyDescent="0.25">
       <c r="A39" s="4"/>
       <c r="B39" s="12">
-        <v>160003</v>
+        <v>160001</v>
       </c>
       <c r="C39" s="3" t="s">
         <v>31</v>
       </c>
       <c r="D39" s="7"/>
       <c r="E39" s="16"/>
-      <c r="F39" s="22">
-        <v>1</v>
-      </c>
+      <c r="F39" s="17"/>
       <c r="G39" s="17"/>
       <c r="H39" s="17"/>
       <c r="I39" s="17"/>
@@ -2865,16 +2805,14 @@
     <row r="40" spans="1:23" hidden="1" x14ac:dyDescent="0.25">
       <c r="A40" s="4"/>
       <c r="B40" s="12">
-        <v>160004</v>
+        <v>160002</v>
       </c>
       <c r="C40" s="3" t="s">
         <v>32</v>
       </c>
       <c r="D40" s="7"/>
       <c r="E40" s="16"/>
-      <c r="F40" s="17">
-        <v>1</v>
-      </c>
+      <c r="F40" s="17"/>
       <c r="G40" s="17"/>
       <c r="H40" s="17"/>
       <c r="I40" s="17"/>
@@ -2893,161 +2831,79 @@
       <c r="V40" s="17"/>
       <c r="W40" s="17"/>
     </row>
-    <row r="41" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:23" hidden="1" x14ac:dyDescent="0.25">
       <c r="A41" s="4"/>
       <c r="B41" s="12">
-        <v>161000</v>
-      </c>
-      <c r="C41" s="24" t="s">
-        <v>113</v>
-      </c>
-      <c r="D41" s="7">
-        <v>2</v>
-      </c>
-      <c r="E41" s="16" t="s">
-        <v>95</v>
-      </c>
-      <c r="F41" s="22">
-        <v>1</v>
-      </c>
-      <c r="G41" s="16">
-        <v>1</v>
-      </c>
-      <c r="H41" s="16">
-        <v>1</v>
-      </c>
-      <c r="I41" s="16">
-        <v>1</v>
-      </c>
-      <c r="J41" s="16">
-        <v>1</v>
-      </c>
-      <c r="K41" s="16">
-        <v>1</v>
-      </c>
-      <c r="L41" s="16">
-        <v>1</v>
-      </c>
-      <c r="M41" s="16">
-        <v>1</v>
-      </c>
-      <c r="N41" s="16">
-        <v>1</v>
-      </c>
-      <c r="O41" s="32">
-        <v>1</v>
-      </c>
-      <c r="P41" s="16">
-        <v>1</v>
-      </c>
-      <c r="Q41" s="16">
-        <v>1</v>
-      </c>
-      <c r="R41" s="16">
-        <v>1</v>
-      </c>
-      <c r="S41" s="16">
-        <v>1</v>
-      </c>
-      <c r="T41" s="16">
-        <v>0</v>
-      </c>
-      <c r="U41" s="16">
-        <v>0</v>
-      </c>
-      <c r="V41" s="16">
-        <v>0</v>
-      </c>
-      <c r="W41" s="16">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="42" spans="1:23" x14ac:dyDescent="0.25">
+        <v>160003</v>
+      </c>
+      <c r="C41" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="D41" s="7"/>
+      <c r="E41" s="16"/>
+      <c r="F41" s="17"/>
+      <c r="G41" s="17"/>
+      <c r="H41" s="17"/>
+      <c r="I41" s="17"/>
+      <c r="J41" s="17"/>
+      <c r="K41" s="17"/>
+      <c r="L41" s="17"/>
+      <c r="M41" s="17"/>
+      <c r="N41" s="17"/>
+      <c r="O41" s="17"/>
+      <c r="P41" s="17"/>
+      <c r="Q41" s="17"/>
+      <c r="R41" s="17"/>
+      <c r="S41" s="17"/>
+      <c r="T41" s="17"/>
+      <c r="U41" s="17"/>
+      <c r="V41" s="17"/>
+      <c r="W41" s="17"/>
+    </row>
+    <row r="42" spans="1:23" hidden="1" x14ac:dyDescent="0.25">
       <c r="A42" s="4"/>
       <c r="B42" s="12">
-        <v>161001</v>
-      </c>
-      <c r="C42" s="24" t="s">
-        <v>114</v>
-      </c>
-      <c r="D42" s="7">
-        <v>23</v>
-      </c>
-      <c r="E42" s="16" t="s">
-        <v>95</v>
-      </c>
-      <c r="F42" s="17">
-        <v>1</v>
-      </c>
-      <c r="G42" s="16">
-        <v>1</v>
-      </c>
-      <c r="H42" s="16">
-        <v>1</v>
-      </c>
-      <c r="I42" s="16">
-        <v>1</v>
-      </c>
-      <c r="J42" s="16">
-        <v>1</v>
-      </c>
-      <c r="K42" s="16">
-        <v>1</v>
-      </c>
-      <c r="L42" s="16">
-        <v>1</v>
-      </c>
-      <c r="M42" s="16">
-        <v>1</v>
-      </c>
-      <c r="N42" s="16">
-        <v>1</v>
-      </c>
-      <c r="O42" s="32">
-        <v>1</v>
-      </c>
-      <c r="P42" s="16">
-        <v>1</v>
-      </c>
-      <c r="Q42" s="16">
-        <v>1</v>
-      </c>
-      <c r="R42" s="16">
-        <v>1</v>
-      </c>
-      <c r="S42" s="16">
-        <v>1</v>
-      </c>
-      <c r="T42" s="16">
-        <v>0</v>
-      </c>
-      <c r="U42" s="16">
-        <v>0</v>
-      </c>
-      <c r="V42" s="16">
-        <v>0</v>
-      </c>
-      <c r="W42" s="16">
-        <v>0</v>
-      </c>
+        <v>160004</v>
+      </c>
+      <c r="C42" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="D42" s="7"/>
+      <c r="E42" s="16"/>
+      <c r="F42" s="17"/>
+      <c r="G42" s="17"/>
+      <c r="H42" s="17"/>
+      <c r="I42" s="17"/>
+      <c r="J42" s="17"/>
+      <c r="K42" s="17"/>
+      <c r="L42" s="17"/>
+      <c r="M42" s="17"/>
+      <c r="N42" s="17"/>
+      <c r="O42" s="17"/>
+      <c r="P42" s="17"/>
+      <c r="Q42" s="17"/>
+      <c r="R42" s="17"/>
+      <c r="S42" s="17"/>
+      <c r="T42" s="17"/>
+      <c r="U42" s="17"/>
+      <c r="V42" s="17"/>
+      <c r="W42" s="17"/>
     </row>
     <row r="43" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A43" s="4"/>
       <c r="B43" s="12">
-        <v>161002</v>
+        <v>161000</v>
       </c>
       <c r="C43" s="24" t="s">
         <v>115</v>
       </c>
       <c r="D43" s="7">
-        <v>24</v>
+        <v>2</v>
       </c>
       <c r="E43" s="16" t="s">
-        <v>95</v>
-      </c>
-      <c r="F43" s="22">
-        <v>1</v>
-      </c>
+        <v>128</v>
+      </c>
+      <c r="F43" s="22"/>
       <c r="G43" s="16">
         <v>1</v>
       </c>
@@ -3072,7 +2928,7 @@
       <c r="N43" s="16">
         <v>1</v>
       </c>
-      <c r="O43" s="32">
+      <c r="O43" s="33">
         <v>1</v>
       </c>
       <c r="P43" s="16">
@@ -3103,147 +2959,215 @@
     <row r="44" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A44" s="4"/>
       <c r="B44" s="12">
-        <v>161003</v>
+        <v>161001</v>
       </c>
       <c r="C44" s="24" t="s">
         <v>116</v>
       </c>
       <c r="D44" s="7">
+        <v>23</v>
+      </c>
+      <c r="E44" s="16" t="s">
+        <v>128</v>
+      </c>
+      <c r="F44" s="22"/>
+      <c r="G44" s="16">
+        <v>1</v>
+      </c>
+      <c r="H44" s="16">
+        <v>1</v>
+      </c>
+      <c r="I44" s="16">
+        <v>1</v>
+      </c>
+      <c r="J44" s="16">
+        <v>1</v>
+      </c>
+      <c r="K44" s="16">
+        <v>1</v>
+      </c>
+      <c r="L44" s="16">
+        <v>1</v>
+      </c>
+      <c r="M44" s="16">
+        <v>1</v>
+      </c>
+      <c r="N44" s="16">
+        <v>1</v>
+      </c>
+      <c r="O44" s="33">
+        <v>1</v>
+      </c>
+      <c r="P44" s="16">
+        <v>1</v>
+      </c>
+      <c r="Q44" s="16">
+        <v>1</v>
+      </c>
+      <c r="R44" s="16">
+        <v>1</v>
+      </c>
+      <c r="S44" s="16">
+        <v>1</v>
+      </c>
+      <c r="T44" s="16">
+        <v>0</v>
+      </c>
+      <c r="U44" s="16">
+        <v>0</v>
+      </c>
+      <c r="V44" s="16">
+        <v>0</v>
+      </c>
+      <c r="W44" s="16">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A45" s="4"/>
+      <c r="B45" s="12">
+        <v>161002</v>
+      </c>
+      <c r="C45" s="24" t="s">
+        <v>117</v>
+      </c>
+      <c r="D45" s="7">
+        <v>24</v>
+      </c>
+      <c r="E45" s="16" t="s">
+        <v>128</v>
+      </c>
+      <c r="F45" s="22"/>
+      <c r="G45" s="16">
+        <v>1</v>
+      </c>
+      <c r="H45" s="16">
+        <v>1</v>
+      </c>
+      <c r="I45" s="16">
+        <v>1</v>
+      </c>
+      <c r="J45" s="16">
+        <v>1</v>
+      </c>
+      <c r="K45" s="16">
+        <v>1</v>
+      </c>
+      <c r="L45" s="16">
+        <v>1</v>
+      </c>
+      <c r="M45" s="16">
+        <v>1</v>
+      </c>
+      <c r="N45" s="16">
+        <v>1</v>
+      </c>
+      <c r="O45" s="33">
+        <v>1</v>
+      </c>
+      <c r="P45" s="16">
+        <v>1</v>
+      </c>
+      <c r="Q45" s="16">
+        <v>1</v>
+      </c>
+      <c r="R45" s="16">
+        <v>1</v>
+      </c>
+      <c r="S45" s="16">
+        <v>1</v>
+      </c>
+      <c r="T45" s="16">
+        <v>0</v>
+      </c>
+      <c r="U45" s="16">
+        <v>0</v>
+      </c>
+      <c r="V45" s="16">
+        <v>0</v>
+      </c>
+      <c r="W45" s="16">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A46" s="4"/>
+      <c r="B46" s="12">
+        <v>161003</v>
+      </c>
+      <c r="C46" s="24" t="s">
+        <v>118</v>
+      </c>
+      <c r="D46" s="7">
         <v>33</v>
       </c>
-      <c r="E44" s="16" t="s">
-        <v>95</v>
-      </c>
-      <c r="F44" s="17">
-        <v>1</v>
-      </c>
-      <c r="G44" s="16">
-        <v>1</v>
-      </c>
-      <c r="H44" s="16">
-        <v>1</v>
-      </c>
-      <c r="I44" s="16">
-        <v>1</v>
-      </c>
-      <c r="J44" s="16">
-        <v>1</v>
-      </c>
-      <c r="K44" s="16">
-        <v>1</v>
-      </c>
-      <c r="L44" s="16">
-        <v>1</v>
-      </c>
-      <c r="M44" s="16">
-        <v>1</v>
-      </c>
-      <c r="N44" s="16">
-        <v>1</v>
-      </c>
-      <c r="O44" s="32">
-        <v>1</v>
-      </c>
-      <c r="P44" s="16">
-        <v>1</v>
-      </c>
-      <c r="Q44" s="16">
-        <v>1</v>
-      </c>
-      <c r="R44" s="16">
-        <v>1</v>
-      </c>
-      <c r="S44" s="16">
-        <v>1</v>
-      </c>
-      <c r="T44" s="16">
-        <v>0</v>
-      </c>
-      <c r="U44" s="16">
-        <v>0</v>
-      </c>
-      <c r="V44" s="16">
-        <v>0</v>
-      </c>
-      <c r="W44" s="16">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="45" spans="1:23" ht="38.25" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A45" s="4"/>
-      <c r="B45" s="13" t="s">
-        <v>33</v>
-      </c>
-      <c r="C45" s="3" t="s">
+      <c r="E46" s="16" t="s">
+        <v>128</v>
+      </c>
+      <c r="F46" s="22"/>
+      <c r="G46" s="16">
+        <v>1</v>
+      </c>
+      <c r="H46" s="16">
+        <v>1</v>
+      </c>
+      <c r="I46" s="16">
+        <v>1</v>
+      </c>
+      <c r="J46" s="16">
+        <v>1</v>
+      </c>
+      <c r="K46" s="16">
+        <v>1</v>
+      </c>
+      <c r="L46" s="16">
+        <v>1</v>
+      </c>
+      <c r="M46" s="16">
+        <v>1</v>
+      </c>
+      <c r="N46" s="16">
+        <v>1</v>
+      </c>
+      <c r="O46" s="33">
+        <v>1</v>
+      </c>
+      <c r="P46" s="16">
+        <v>1</v>
+      </c>
+      <c r="Q46" s="16">
+        <v>1</v>
+      </c>
+      <c r="R46" s="16">
+        <v>1</v>
+      </c>
+      <c r="S46" s="16">
+        <v>1</v>
+      </c>
+      <c r="T46" s="16">
+        <v>0</v>
+      </c>
+      <c r="U46" s="16">
+        <v>0</v>
+      </c>
+      <c r="V46" s="16">
+        <v>0</v>
+      </c>
+      <c r="W46" s="16">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="47" spans="1:23" ht="38.25" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A47" s="4"/>
+      <c r="B47" s="13" t="s">
+        <v>35</v>
+      </c>
+      <c r="C47" s="3" t="s">
         <v>14</v>
-      </c>
-      <c r="D45" s="7"/>
-      <c r="E45" s="16"/>
-      <c r="F45" s="22">
-        <v>1</v>
-      </c>
-      <c r="G45" s="17"/>
-      <c r="H45" s="17"/>
-      <c r="I45" s="17"/>
-      <c r="J45" s="17"/>
-      <c r="K45" s="17"/>
-      <c r="L45" s="17"/>
-      <c r="M45" s="17"/>
-      <c r="N45" s="17"/>
-      <c r="O45" s="17"/>
-      <c r="P45" s="17"/>
-      <c r="Q45" s="17"/>
-      <c r="R45" s="17"/>
-      <c r="S45" s="17"/>
-      <c r="T45" s="17"/>
-      <c r="U45" s="17"/>
-      <c r="V45" s="17"/>
-      <c r="W45" s="17"/>
-    </row>
-    <row r="46" spans="1:23" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A46" s="4"/>
-      <c r="B46" s="11">
-        <v>170000</v>
-      </c>
-      <c r="C46" s="3" t="s">
-        <v>34</v>
-      </c>
-      <c r="D46" s="7"/>
-      <c r="E46" s="16"/>
-      <c r="F46" s="17">
-        <v>1</v>
-      </c>
-      <c r="G46" s="17"/>
-      <c r="H46" s="17"/>
-      <c r="I46" s="17"/>
-      <c r="J46" s="17"/>
-      <c r="K46" s="17"/>
-      <c r="L46" s="17"/>
-      <c r="M46" s="17"/>
-      <c r="N46" s="17"/>
-      <c r="O46" s="17"/>
-      <c r="P46" s="17"/>
-      <c r="Q46" s="17"/>
-      <c r="R46" s="17"/>
-      <c r="S46" s="17"/>
-      <c r="T46" s="17"/>
-      <c r="U46" s="17"/>
-      <c r="V46" s="17"/>
-      <c r="W46" s="17"/>
-    </row>
-    <row r="47" spans="1:23" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A47" s="4"/>
-      <c r="B47" s="12">
-        <v>170001</v>
-      </c>
-      <c r="C47" s="3" t="s">
-        <v>35</v>
       </c>
       <c r="D47" s="7"/>
       <c r="E47" s="16"/>
-      <c r="F47" s="22">
-        <v>1</v>
-      </c>
+      <c r="F47" s="17"/>
       <c r="G47" s="17"/>
       <c r="H47" s="17"/>
       <c r="I47" s="17"/>
@@ -3264,17 +3188,15 @@
     </row>
     <row r="48" spans="1:23" hidden="1" x14ac:dyDescent="0.25">
       <c r="A48" s="4"/>
-      <c r="B48" s="12">
-        <v>170002</v>
+      <c r="B48" s="11">
+        <v>170000</v>
       </c>
       <c r="C48" s="3" t="s">
         <v>36</v>
       </c>
       <c r="D48" s="7"/>
       <c r="E48" s="16"/>
-      <c r="F48" s="17">
-        <v>1</v>
-      </c>
+      <c r="F48" s="17"/>
       <c r="G48" s="17"/>
       <c r="H48" s="17"/>
       <c r="I48" s="17"/>
@@ -3296,16 +3218,14 @@
     <row r="49" spans="1:23" hidden="1" x14ac:dyDescent="0.25">
       <c r="A49" s="4"/>
       <c r="B49" s="12">
-        <v>170003</v>
+        <v>170001</v>
       </c>
       <c r="C49" s="3" t="s">
         <v>37</v>
       </c>
       <c r="D49" s="7"/>
       <c r="E49" s="16"/>
-      <c r="F49" s="22">
-        <v>1</v>
-      </c>
+      <c r="F49" s="17"/>
       <c r="G49" s="17"/>
       <c r="H49" s="17"/>
       <c r="I49" s="17"/>
@@ -3327,16 +3247,14 @@
     <row r="50" spans="1:23" hidden="1" x14ac:dyDescent="0.25">
       <c r="A50" s="4"/>
       <c r="B50" s="12">
-        <v>170004</v>
+        <v>170002</v>
       </c>
       <c r="C50" s="3" t="s">
         <v>38</v>
       </c>
       <c r="D50" s="7"/>
-      <c r="E50" s="18"/>
-      <c r="F50" s="17">
-        <v>1</v>
-      </c>
+      <c r="E50" s="16"/>
+      <c r="F50" s="17"/>
       <c r="G50" s="17"/>
       <c r="H50" s="17"/>
       <c r="I50" s="17"/>
@@ -3358,16 +3276,14 @@
     <row r="51" spans="1:23" hidden="1" x14ac:dyDescent="0.25">
       <c r="A51" s="4"/>
       <c r="B51" s="12">
-        <v>170005</v>
+        <v>170003</v>
       </c>
       <c r="C51" s="3" t="s">
         <v>39</v>
       </c>
       <c r="D51" s="7"/>
       <c r="E51" s="16"/>
-      <c r="F51" s="22">
-        <v>1</v>
-      </c>
+      <c r="F51" s="17"/>
       <c r="G51" s="17"/>
       <c r="H51" s="17"/>
       <c r="I51" s="17"/>
@@ -3389,16 +3305,14 @@
     <row r="52" spans="1:23" hidden="1" x14ac:dyDescent="0.25">
       <c r="A52" s="4"/>
       <c r="B52" s="12">
-        <v>170006</v>
+        <v>170004</v>
       </c>
       <c r="C52" s="3" t="s">
         <v>40</v>
       </c>
       <c r="D52" s="7"/>
-      <c r="E52" s="16"/>
-      <c r="F52" s="17">
-        <v>1</v>
-      </c>
+      <c r="E52" s="18"/>
+      <c r="F52" s="17"/>
       <c r="G52" s="17"/>
       <c r="H52" s="17"/>
       <c r="I52" s="17"/>
@@ -3417,19 +3331,17 @@
       <c r="V52" s="17"/>
       <c r="W52" s="17"/>
     </row>
-    <row r="53" spans="1:23" ht="38.25" hidden="1" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:23" hidden="1" x14ac:dyDescent="0.25">
       <c r="A53" s="4"/>
-      <c r="B53" s="13" t="s">
+      <c r="B53" s="12">
+        <v>170005</v>
+      </c>
+      <c r="C53" s="3" t="s">
         <v>41</v>
-      </c>
-      <c r="C53" s="3" t="s">
-        <v>14</v>
       </c>
       <c r="D53" s="7"/>
       <c r="E53" s="16"/>
-      <c r="F53" s="22">
-        <v>1</v>
-      </c>
+      <c r="F53" s="17"/>
       <c r="G53" s="17"/>
       <c r="H53" s="17"/>
       <c r="I53" s="17"/>
@@ -3450,17 +3362,15 @@
     </row>
     <row r="54" spans="1:23" hidden="1" x14ac:dyDescent="0.25">
       <c r="A54" s="4"/>
-      <c r="B54" s="11">
-        <v>499999</v>
+      <c r="B54" s="12">
+        <v>170006</v>
       </c>
       <c r="C54" s="3" t="s">
         <v>42</v>
       </c>
       <c r="D54" s="7"/>
       <c r="E54" s="16"/>
-      <c r="F54" s="17">
-        <v>1</v>
-      </c>
+      <c r="F54" s="17"/>
       <c r="G54" s="17"/>
       <c r="H54" s="17"/>
       <c r="I54" s="17"/>
@@ -3479,52 +3389,46 @@
       <c r="V54" s="17"/>
       <c r="W54" s="17"/>
     </row>
-    <row r="55" spans="1:23" s="34" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A55" s="35" t="s">
+    <row r="55" spans="1:23" ht="38.25" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A55" s="4"/>
+      <c r="B55" s="13" t="s">
         <v>43</v>
       </c>
-      <c r="B55" s="30">
-        <v>510000</v>
-      </c>
-      <c r="C55" s="36" t="s">
-        <v>44</v>
-      </c>
-      <c r="D55" s="31"/>
-      <c r="E55" s="32"/>
-      <c r="F55" s="22">
-        <v>1</v>
-      </c>
-      <c r="G55" s="33"/>
-      <c r="H55" s="33"/>
-      <c r="I55" s="33"/>
-      <c r="J55" s="33"/>
-      <c r="K55" s="33"/>
-      <c r="L55" s="33"/>
-      <c r="M55" s="33"/>
-      <c r="N55" s="33"/>
-      <c r="O55" s="33"/>
-      <c r="P55" s="33"/>
-      <c r="Q55" s="33"/>
-      <c r="R55" s="33"/>
-      <c r="S55" s="33"/>
-      <c r="T55" s="33"/>
-      <c r="U55" s="33"/>
-      <c r="V55" s="33"/>
-      <c r="W55" s="33"/>
+      <c r="C55" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="D55" s="7"/>
+      <c r="E55" s="16"/>
+      <c r="F55" s="17"/>
+      <c r="G55" s="17"/>
+      <c r="H55" s="17"/>
+      <c r="I55" s="17"/>
+      <c r="J55" s="17"/>
+      <c r="K55" s="17"/>
+      <c r="L55" s="17"/>
+      <c r="M55" s="17"/>
+      <c r="N55" s="17"/>
+      <c r="O55" s="17"/>
+      <c r="P55" s="17"/>
+      <c r="Q55" s="17"/>
+      <c r="R55" s="17"/>
+      <c r="S55" s="17"/>
+      <c r="T55" s="17"/>
+      <c r="U55" s="17"/>
+      <c r="V55" s="17"/>
+      <c r="W55" s="17"/>
     </row>
     <row r="56" spans="1:23" hidden="1" x14ac:dyDescent="0.25">
       <c r="A56" s="4"/>
-      <c r="B56" s="12">
-        <v>510001</v>
+      <c r="B56" s="11">
+        <v>499999</v>
       </c>
       <c r="C56" s="3" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="D56" s="7"/>
       <c r="E56" s="16"/>
-      <c r="F56" s="17">
-        <v>1</v>
-      </c>
+      <c r="F56" s="17"/>
       <c r="G56" s="17"/>
       <c r="H56" s="17"/>
       <c r="I56" s="17"/>
@@ -3543,50 +3447,48 @@
       <c r="V56" s="17"/>
       <c r="W56" s="17"/>
     </row>
-    <row r="57" spans="1:23" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A57" s="4"/>
-      <c r="B57" s="12">
-        <v>510002</v>
-      </c>
-      <c r="C57" s="3" t="s">
+    <row r="57" spans="1:23" s="35" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A57" s="36" t="s">
+        <v>45</v>
+      </c>
+      <c r="B57" s="31">
+        <v>510000</v>
+      </c>
+      <c r="C57" s="37" t="s">
         <v>46</v>
       </c>
-      <c r="D57" s="7"/>
-      <c r="E57" s="16"/>
-      <c r="F57" s="22">
-        <v>1</v>
-      </c>
-      <c r="G57" s="17"/>
-      <c r="H57" s="17"/>
-      <c r="I57" s="17"/>
-      <c r="J57" s="17"/>
-      <c r="K57" s="17"/>
-      <c r="L57" s="17"/>
-      <c r="M57" s="17"/>
-      <c r="N57" s="17"/>
-      <c r="O57" s="17"/>
-      <c r="P57" s="17"/>
-      <c r="Q57" s="17"/>
-      <c r="R57" s="17"/>
-      <c r="S57" s="17"/>
-      <c r="T57" s="17"/>
-      <c r="U57" s="17"/>
-      <c r="V57" s="17"/>
-      <c r="W57" s="17"/>
+      <c r="D57" s="32"/>
+      <c r="E57" s="33"/>
+      <c r="F57" s="34"/>
+      <c r="G57" s="34"/>
+      <c r="H57" s="34"/>
+      <c r="I57" s="34"/>
+      <c r="J57" s="34"/>
+      <c r="K57" s="34"/>
+      <c r="L57" s="34"/>
+      <c r="M57" s="34"/>
+      <c r="N57" s="34"/>
+      <c r="O57" s="34"/>
+      <c r="P57" s="34"/>
+      <c r="Q57" s="34"/>
+      <c r="R57" s="34"/>
+      <c r="S57" s="34"/>
+      <c r="T57" s="34"/>
+      <c r="U57" s="34"/>
+      <c r="V57" s="34"/>
+      <c r="W57" s="34"/>
     </row>
     <row r="58" spans="1:23" hidden="1" x14ac:dyDescent="0.25">
       <c r="A58" s="4"/>
       <c r="B58" s="12">
-        <v>510003</v>
+        <v>510001</v>
       </c>
       <c r="C58" s="3" t="s">
         <v>47</v>
       </c>
       <c r="D58" s="7"/>
       <c r="E58" s="16"/>
-      <c r="F58" s="17">
-        <v>1</v>
-      </c>
+      <c r="F58" s="17"/>
       <c r="G58" s="17"/>
       <c r="H58" s="17"/>
       <c r="I58" s="17"/>
@@ -3608,16 +3510,14 @@
     <row r="59" spans="1:23" hidden="1" x14ac:dyDescent="0.25">
       <c r="A59" s="4"/>
       <c r="B59" s="12">
-        <v>510004</v>
+        <v>510002</v>
       </c>
       <c r="C59" s="3" t="s">
         <v>48</v>
       </c>
       <c r="D59" s="7"/>
       <c r="E59" s="16"/>
-      <c r="F59" s="22">
-        <v>1</v>
-      </c>
+      <c r="F59" s="17"/>
       <c r="G59" s="17"/>
       <c r="H59" s="17"/>
       <c r="I59" s="17"/>
@@ -3639,16 +3539,14 @@
     <row r="60" spans="1:23" hidden="1" x14ac:dyDescent="0.25">
       <c r="A60" s="4"/>
       <c r="B60" s="12">
-        <v>510005</v>
+        <v>510003</v>
       </c>
       <c r="C60" s="3" t="s">
         <v>49</v>
       </c>
       <c r="D60" s="7"/>
       <c r="E60" s="16"/>
-      <c r="F60" s="17">
-        <v>1</v>
-      </c>
+      <c r="F60" s="17"/>
       <c r="G60" s="17"/>
       <c r="H60" s="17"/>
       <c r="I60" s="17"/>
@@ -3670,16 +3568,14 @@
     <row r="61" spans="1:23" hidden="1" x14ac:dyDescent="0.25">
       <c r="A61" s="4"/>
       <c r="B61" s="12">
-        <v>510006</v>
+        <v>510004</v>
       </c>
       <c r="C61" s="3" t="s">
         <v>50</v>
       </c>
       <c r="D61" s="7"/>
       <c r="E61" s="16"/>
-      <c r="F61" s="22">
-        <v>1</v>
-      </c>
+      <c r="F61" s="17"/>
       <c r="G61" s="17"/>
       <c r="H61" s="17"/>
       <c r="I61" s="17"/>
@@ -3701,16 +3597,14 @@
     <row r="62" spans="1:23" hidden="1" x14ac:dyDescent="0.25">
       <c r="A62" s="4"/>
       <c r="B62" s="12">
-        <v>510007</v>
+        <v>510005</v>
       </c>
       <c r="C62" s="3" t="s">
         <v>51</v>
       </c>
       <c r="D62" s="7"/>
       <c r="E62" s="16"/>
-      <c r="F62" s="17">
-        <v>1</v>
-      </c>
+      <c r="F62" s="17"/>
       <c r="G62" s="17"/>
       <c r="H62" s="17"/>
       <c r="I62" s="17"/>
@@ -3729,19 +3623,17 @@
       <c r="V62" s="17"/>
       <c r="W62" s="17"/>
     </row>
-    <row r="63" spans="1:23" ht="38.25" hidden="1" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:23" hidden="1" x14ac:dyDescent="0.25">
       <c r="A63" s="4"/>
-      <c r="B63" s="13" t="s">
+      <c r="B63" s="12">
+        <v>510006</v>
+      </c>
+      <c r="C63" s="3" t="s">
         <v>52</v>
-      </c>
-      <c r="C63" s="3" t="s">
-        <v>14</v>
       </c>
       <c r="D63" s="7"/>
       <c r="E63" s="16"/>
-      <c r="F63" s="22">
-        <v>1</v>
-      </c>
+      <c r="F63" s="17"/>
       <c r="G63" s="17"/>
       <c r="H63" s="17"/>
       <c r="I63" s="17"/>
@@ -3762,17 +3654,15 @@
     </row>
     <row r="64" spans="1:23" hidden="1" x14ac:dyDescent="0.25">
       <c r="A64" s="4"/>
-      <c r="B64" s="11">
-        <v>520000</v>
+      <c r="B64" s="12">
+        <v>510007</v>
       </c>
       <c r="C64" s="3" t="s">
         <v>53</v>
       </c>
       <c r="D64" s="7"/>
       <c r="E64" s="16"/>
-      <c r="F64" s="17">
-        <v>1</v>
-      </c>
+      <c r="F64" s="17"/>
       <c r="G64" s="17"/>
       <c r="H64" s="17"/>
       <c r="I64" s="17"/>
@@ -3791,19 +3681,17 @@
       <c r="V64" s="17"/>
       <c r="W64" s="17"/>
     </row>
-    <row r="65" spans="1:23" hidden="1" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:23" ht="38.25" hidden="1" x14ac:dyDescent="0.25">
       <c r="A65" s="4"/>
-      <c r="B65" s="12">
-        <v>520001</v>
+      <c r="B65" s="13" t="s">
+        <v>54</v>
       </c>
       <c r="C65" s="3" t="s">
-        <v>54</v>
+        <v>14</v>
       </c>
       <c r="D65" s="7"/>
       <c r="E65" s="16"/>
-      <c r="F65" s="22">
-        <v>1</v>
-      </c>
+      <c r="F65" s="17"/>
       <c r="G65" s="17"/>
       <c r="H65" s="17"/>
       <c r="I65" s="17"/>
@@ -3824,17 +3712,15 @@
     </row>
     <row r="66" spans="1:23" hidden="1" x14ac:dyDescent="0.25">
       <c r="A66" s="4"/>
-      <c r="B66" s="12">
-        <v>520002</v>
+      <c r="B66" s="11">
+        <v>520000</v>
       </c>
       <c r="C66" s="3" t="s">
         <v>55</v>
       </c>
       <c r="D66" s="7"/>
       <c r="E66" s="16"/>
-      <c r="F66" s="17">
-        <v>1</v>
-      </c>
+      <c r="F66" s="17"/>
       <c r="G66" s="17"/>
       <c r="H66" s="17"/>
       <c r="I66" s="17"/>
@@ -3856,16 +3742,14 @@
     <row r="67" spans="1:23" hidden="1" x14ac:dyDescent="0.25">
       <c r="A67" s="4"/>
       <c r="B67" s="12">
-        <v>520003</v>
+        <v>520001</v>
       </c>
       <c r="C67" s="3" t="s">
         <v>56</v>
       </c>
       <c r="D67" s="7"/>
       <c r="E67" s="16"/>
-      <c r="F67" s="22">
-        <v>1</v>
-      </c>
+      <c r="F67" s="17"/>
       <c r="G67" s="17"/>
       <c r="H67" s="17"/>
       <c r="I67" s="17"/>
@@ -3887,16 +3771,14 @@
     <row r="68" spans="1:23" hidden="1" x14ac:dyDescent="0.25">
       <c r="A68" s="4"/>
       <c r="B68" s="12">
-        <v>520004</v>
+        <v>520002</v>
       </c>
       <c r="C68" s="3" t="s">
         <v>57</v>
       </c>
       <c r="D68" s="7"/>
       <c r="E68" s="16"/>
-      <c r="F68" s="17">
-        <v>1</v>
-      </c>
+      <c r="F68" s="17"/>
       <c r="G68" s="17"/>
       <c r="H68" s="17"/>
       <c r="I68" s="17"/>
@@ -3918,16 +3800,14 @@
     <row r="69" spans="1:23" hidden="1" x14ac:dyDescent="0.25">
       <c r="A69" s="4"/>
       <c r="B69" s="12">
-        <v>520005</v>
+        <v>520003</v>
       </c>
       <c r="C69" s="3" t="s">
         <v>58</v>
       </c>
       <c r="D69" s="7"/>
       <c r="E69" s="16"/>
-      <c r="F69" s="22">
-        <v>1</v>
-      </c>
+      <c r="F69" s="17"/>
       <c r="G69" s="17"/>
       <c r="H69" s="17"/>
       <c r="I69" s="17"/>
@@ -3949,16 +3829,14 @@
     <row r="70" spans="1:23" hidden="1" x14ac:dyDescent="0.25">
       <c r="A70" s="4"/>
       <c r="B70" s="12">
-        <v>520006</v>
+        <v>520004</v>
       </c>
       <c r="C70" s="3" t="s">
         <v>59</v>
       </c>
       <c r="D70" s="7"/>
       <c r="E70" s="16"/>
-      <c r="F70" s="17">
-        <v>1</v>
-      </c>
+      <c r="F70" s="17"/>
       <c r="G70" s="17"/>
       <c r="H70" s="17"/>
       <c r="I70" s="17"/>
@@ -3980,16 +3858,14 @@
     <row r="71" spans="1:23" hidden="1" x14ac:dyDescent="0.25">
       <c r="A71" s="4"/>
       <c r="B71" s="12">
-        <v>520007</v>
+        <v>520005</v>
       </c>
       <c r="C71" s="3" t="s">
         <v>60</v>
       </c>
       <c r="D71" s="7"/>
       <c r="E71" s="16"/>
-      <c r="F71" s="22">
-        <v>1</v>
-      </c>
+      <c r="F71" s="17"/>
       <c r="G71" s="17"/>
       <c r="H71" s="17"/>
       <c r="I71" s="17"/>
@@ -4011,16 +3887,14 @@
     <row r="72" spans="1:23" hidden="1" x14ac:dyDescent="0.25">
       <c r="A72" s="4"/>
       <c r="B72" s="12">
-        <v>520008</v>
+        <v>520006</v>
       </c>
       <c r="C72" s="3" t="s">
         <v>61</v>
       </c>
       <c r="D72" s="7"/>
       <c r="E72" s="16"/>
-      <c r="F72" s="17">
-        <v>1</v>
-      </c>
+      <c r="F72" s="17"/>
       <c r="G72" s="17"/>
       <c r="H72" s="17"/>
       <c r="I72" s="17"/>
@@ -4042,16 +3916,14 @@
     <row r="73" spans="1:23" hidden="1" x14ac:dyDescent="0.25">
       <c r="A73" s="4"/>
       <c r="B73" s="12">
-        <v>520009</v>
+        <v>520007</v>
       </c>
       <c r="C73" s="3" t="s">
         <v>62</v>
       </c>
       <c r="D73" s="7"/>
       <c r="E73" s="16"/>
-      <c r="F73" s="22">
-        <v>1</v>
-      </c>
+      <c r="F73" s="17"/>
       <c r="G73" s="17"/>
       <c r="H73" s="17"/>
       <c r="I73" s="17"/>
@@ -4070,19 +3942,17 @@
       <c r="V73" s="17"/>
       <c r="W73" s="17"/>
     </row>
-    <row r="74" spans="1:23" ht="25.5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:23" hidden="1" x14ac:dyDescent="0.25">
       <c r="A74" s="4"/>
       <c r="B74" s="12">
-        <v>520010</v>
+        <v>520008</v>
       </c>
       <c r="C74" s="3" t="s">
         <v>63</v>
       </c>
       <c r="D74" s="7"/>
       <c r="E74" s="16"/>
-      <c r="F74" s="17">
-        <v>1</v>
-      </c>
+      <c r="F74" s="17"/>
       <c r="G74" s="17"/>
       <c r="H74" s="17"/>
       <c r="I74" s="17"/>
@@ -4101,19 +3971,17 @@
       <c r="V74" s="17"/>
       <c r="W74" s="17"/>
     </row>
-    <row r="75" spans="1:23" ht="25.5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:23" hidden="1" x14ac:dyDescent="0.25">
       <c r="A75" s="4"/>
       <c r="B75" s="12">
-        <v>520011</v>
+        <v>520009</v>
       </c>
       <c r="C75" s="3" t="s">
         <v>64</v>
       </c>
       <c r="D75" s="7"/>
       <c r="E75" s="16"/>
-      <c r="F75" s="22">
-        <v>1</v>
-      </c>
+      <c r="F75" s="17"/>
       <c r="G75" s="17"/>
       <c r="H75" s="17"/>
       <c r="I75" s="17"/>
@@ -4135,16 +4003,14 @@
     <row r="76" spans="1:23" ht="25.5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A76" s="4"/>
       <c r="B76" s="12">
-        <v>520012</v>
+        <v>520010</v>
       </c>
       <c r="C76" s="3" t="s">
         <v>65</v>
       </c>
       <c r="D76" s="7"/>
       <c r="E76" s="16"/>
-      <c r="F76" s="17">
-        <v>1</v>
-      </c>
+      <c r="F76" s="17"/>
       <c r="G76" s="17"/>
       <c r="H76" s="17"/>
       <c r="I76" s="17"/>
@@ -4166,16 +4032,14 @@
     <row r="77" spans="1:23" ht="25.5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A77" s="4"/>
       <c r="B77" s="12">
-        <v>520013</v>
+        <v>520011</v>
       </c>
       <c r="C77" s="3" t="s">
         <v>66</v>
       </c>
       <c r="D77" s="7"/>
       <c r="E77" s="16"/>
-      <c r="F77" s="22">
-        <v>1</v>
-      </c>
+      <c r="F77" s="17"/>
       <c r="G77" s="17"/>
       <c r="H77" s="17"/>
       <c r="I77" s="17"/>
@@ -4194,19 +4058,17 @@
       <c r="V77" s="17"/>
       <c r="W77" s="17"/>
     </row>
-    <row r="78" spans="1:23" hidden="1" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:23" ht="25.5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A78" s="4"/>
       <c r="B78" s="12">
-        <v>520014</v>
+        <v>520012</v>
       </c>
       <c r="C78" s="3" t="s">
         <v>67</v>
       </c>
       <c r="D78" s="7"/>
       <c r="E78" s="16"/>
-      <c r="F78" s="17">
-        <v>1</v>
-      </c>
+      <c r="F78" s="17"/>
       <c r="G78" s="17"/>
       <c r="H78" s="17"/>
       <c r="I78" s="17"/>
@@ -4225,161 +4087,79 @@
       <c r="V78" s="17"/>
       <c r="W78" s="17"/>
     </row>
-    <row r="79" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:23" ht="25.5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A79" s="4"/>
       <c r="B79" s="12">
-        <v>520015</v>
-      </c>
-      <c r="C79" s="23" t="s">
+        <v>520013</v>
+      </c>
+      <c r="C79" s="3" t="s">
         <v>68</v>
       </c>
-      <c r="D79" s="7">
-        <v>66</v>
-      </c>
-      <c r="E79" s="16" t="s">
-        <v>95</v>
-      </c>
-      <c r="F79" s="22">
-        <v>1</v>
-      </c>
-      <c r="G79" s="16">
-        <v>0</v>
-      </c>
-      <c r="H79" s="16">
-        <v>0</v>
-      </c>
-      <c r="I79" s="16">
-        <v>0</v>
-      </c>
-      <c r="J79" s="16">
-        <v>0</v>
-      </c>
-      <c r="K79" s="16">
-        <v>0</v>
-      </c>
-      <c r="L79" s="16">
-        <v>0</v>
-      </c>
-      <c r="M79" s="16">
-        <v>0</v>
-      </c>
-      <c r="N79" s="16">
-        <v>0</v>
-      </c>
-      <c r="O79" s="16">
-        <v>0</v>
-      </c>
-      <c r="P79" s="16">
-        <v>0</v>
-      </c>
-      <c r="Q79" s="16">
-        <v>0</v>
-      </c>
-      <c r="R79" s="16">
-        <v>0</v>
-      </c>
-      <c r="S79" s="16">
-        <v>0</v>
-      </c>
-      <c r="T79" s="16">
-        <v>0</v>
-      </c>
-      <c r="U79" s="16">
-        <v>0</v>
-      </c>
-      <c r="V79" s="16">
-        <v>0</v>
-      </c>
-      <c r="W79" s="16">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="80" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="D79" s="7"/>
+      <c r="E79" s="16"/>
+      <c r="F79" s="17"/>
+      <c r="G79" s="17"/>
+      <c r="H79" s="17"/>
+      <c r="I79" s="17"/>
+      <c r="J79" s="17"/>
+      <c r="K79" s="17"/>
+      <c r="L79" s="17"/>
+      <c r="M79" s="17"/>
+      <c r="N79" s="17"/>
+      <c r="O79" s="17"/>
+      <c r="P79" s="17"/>
+      <c r="Q79" s="17"/>
+      <c r="R79" s="17"/>
+      <c r="S79" s="17"/>
+      <c r="T79" s="17"/>
+      <c r="U79" s="17"/>
+      <c r="V79" s="17"/>
+      <c r="W79" s="17"/>
+    </row>
+    <row r="80" spans="1:23" hidden="1" x14ac:dyDescent="0.25">
       <c r="A80" s="4"/>
       <c r="B80" s="12">
-        <v>520016</v>
-      </c>
-      <c r="C80" s="23" t="s">
+        <v>520014</v>
+      </c>
+      <c r="C80" s="3" t="s">
         <v>69</v>
       </c>
-      <c r="D80" s="7">
-        <v>67</v>
-      </c>
-      <c r="E80" s="16" t="s">
-        <v>95</v>
-      </c>
-      <c r="F80" s="17">
-        <v>1</v>
-      </c>
-      <c r="G80" s="16">
-        <v>0</v>
-      </c>
-      <c r="H80" s="16">
-        <v>0</v>
-      </c>
-      <c r="I80" s="16">
-        <v>0</v>
-      </c>
-      <c r="J80" s="16">
-        <v>0</v>
-      </c>
-      <c r="K80" s="16">
-        <v>0</v>
-      </c>
-      <c r="L80" s="16">
-        <v>0</v>
-      </c>
-      <c r="M80" s="16">
-        <v>0</v>
-      </c>
-      <c r="N80" s="16">
-        <v>0</v>
-      </c>
-      <c r="O80" s="16">
-        <v>0</v>
-      </c>
-      <c r="P80" s="16">
-        <v>0</v>
-      </c>
-      <c r="Q80" s="16">
-        <v>0</v>
-      </c>
-      <c r="R80" s="16">
-        <v>0</v>
-      </c>
-      <c r="S80" s="16">
-        <v>0</v>
-      </c>
-      <c r="T80" s="16">
-        <v>0</v>
-      </c>
-      <c r="U80" s="16">
-        <v>0</v>
-      </c>
-      <c r="V80" s="16">
-        <v>0</v>
-      </c>
-      <c r="W80" s="16">
-        <v>0</v>
-      </c>
+      <c r="D80" s="7"/>
+      <c r="E80" s="16"/>
+      <c r="F80" s="17"/>
+      <c r="G80" s="17"/>
+      <c r="H80" s="17"/>
+      <c r="I80" s="17"/>
+      <c r="J80" s="17"/>
+      <c r="K80" s="17"/>
+      <c r="L80" s="17"/>
+      <c r="M80" s="17"/>
+      <c r="N80" s="17"/>
+      <c r="O80" s="17"/>
+      <c r="P80" s="17"/>
+      <c r="Q80" s="17"/>
+      <c r="R80" s="17"/>
+      <c r="S80" s="17"/>
+      <c r="T80" s="17"/>
+      <c r="U80" s="17"/>
+      <c r="V80" s="17"/>
+      <c r="W80" s="17"/>
     </row>
     <row r="81" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A81" s="4"/>
       <c r="B81" s="12">
-        <v>520017</v>
+        <v>520015</v>
       </c>
       <c r="C81" s="23" t="s">
         <v>70</v>
       </c>
       <c r="D81" s="7">
-        <v>20</v>
+        <v>66</v>
       </c>
       <c r="E81" s="16" t="s">
-        <v>95</v>
-      </c>
-      <c r="F81" s="22">
-        <v>1</v>
-      </c>
+        <v>128</v>
+      </c>
+      <c r="F81" s="22"/>
       <c r="G81" s="16">
         <v>0</v>
       </c>
@@ -4432,54 +4212,88 @@
         <v>0</v>
       </c>
     </row>
-    <row r="82" spans="1:24" hidden="1" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A82" s="4"/>
       <c r="B82" s="12">
-        <v>520018</v>
-      </c>
-      <c r="C82" s="3" t="s">
+        <v>520016</v>
+      </c>
+      <c r="C82" s="23" t="s">
         <v>71</v>
       </c>
-      <c r="D82" s="7"/>
-      <c r="E82" s="16"/>
-      <c r="F82" s="17">
-        <v>1</v>
-      </c>
-      <c r="G82" s="17"/>
-      <c r="H82" s="17"/>
-      <c r="I82" s="17"/>
-      <c r="J82" s="17"/>
-      <c r="K82" s="17"/>
-      <c r="L82" s="17"/>
-      <c r="M82" s="17"/>
-      <c r="N82" s="17"/>
-      <c r="O82" s="17"/>
-      <c r="P82" s="17"/>
-      <c r="Q82" s="17"/>
-      <c r="R82" s="17"/>
-      <c r="S82" s="17"/>
-      <c r="T82" s="17"/>
-      <c r="U82" s="17"/>
-      <c r="V82" s="17"/>
-      <c r="W82" s="17"/>
+      <c r="D82" s="7">
+        <v>67</v>
+      </c>
+      <c r="E82" s="16" t="s">
+        <v>128</v>
+      </c>
+      <c r="F82" s="22"/>
+      <c r="G82" s="16">
+        <v>0</v>
+      </c>
+      <c r="H82" s="16">
+        <v>0</v>
+      </c>
+      <c r="I82" s="16">
+        <v>0</v>
+      </c>
+      <c r="J82" s="16">
+        <v>0</v>
+      </c>
+      <c r="K82" s="16">
+        <v>0</v>
+      </c>
+      <c r="L82" s="16">
+        <v>0</v>
+      </c>
+      <c r="M82" s="16">
+        <v>0</v>
+      </c>
+      <c r="N82" s="16">
+        <v>0</v>
+      </c>
+      <c r="O82" s="16">
+        <v>0</v>
+      </c>
+      <c r="P82" s="16">
+        <v>0</v>
+      </c>
+      <c r="Q82" s="16">
+        <v>0</v>
+      </c>
+      <c r="R82" s="16">
+        <v>0</v>
+      </c>
+      <c r="S82" s="16">
+        <v>0</v>
+      </c>
+      <c r="T82" s="16">
+        <v>0</v>
+      </c>
+      <c r="U82" s="16">
+        <v>0</v>
+      </c>
+      <c r="V82" s="16">
+        <v>0</v>
+      </c>
+      <c r="W82" s="16">
+        <v>0</v>
+      </c>
     </row>
     <row r="83" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A83" s="4"/>
       <c r="B83" s="12">
-        <v>521000</v>
-      </c>
-      <c r="C83" s="24" t="s">
-        <v>122</v>
+        <v>520017</v>
+      </c>
+      <c r="C83" s="23" t="s">
+        <v>72</v>
       </c>
       <c r="D83" s="7">
-        <v>61</v>
+        <v>20</v>
       </c>
       <c r="E83" s="16" t="s">
-        <v>95</v>
-      </c>
-      <c r="F83" s="22">
-        <v>1</v>
-      </c>
+        <v>128</v>
+      </c>
+      <c r="F83" s="22"/>
       <c r="G83" s="16">
         <v>0</v>
       </c>
@@ -4532,161 +4346,117 @@
         <v>0</v>
       </c>
     </row>
-    <row r="84" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:24" hidden="1" x14ac:dyDescent="0.25">
       <c r="A84" s="4"/>
       <c r="B84" s="12">
+        <v>520018</v>
+      </c>
+      <c r="C84" s="3" t="s">
+        <v>73</v>
+      </c>
+      <c r="D84" s="7"/>
+      <c r="E84" s="16"/>
+      <c r="F84" s="17"/>
+      <c r="G84" s="17"/>
+      <c r="H84" s="17"/>
+      <c r="I84" s="17"/>
+      <c r="J84" s="17"/>
+      <c r="K84" s="17"/>
+      <c r="L84" s="17"/>
+      <c r="M84" s="17"/>
+      <c r="N84" s="17"/>
+      <c r="O84" s="17"/>
+      <c r="P84" s="17"/>
+      <c r="Q84" s="17"/>
+      <c r="R84" s="17"/>
+      <c r="S84" s="17"/>
+      <c r="T84" s="17"/>
+      <c r="U84" s="17"/>
+      <c r="V84" s="17"/>
+      <c r="W84" s="17"/>
+    </row>
+    <row r="85" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="A85" s="4"/>
+      <c r="B85" s="12">
+        <v>521000</v>
+      </c>
+      <c r="C85" s="24" t="s">
+        <v>124</v>
+      </c>
+      <c r="D85" s="7">
+        <v>61</v>
+      </c>
+      <c r="E85" s="16" t="s">
+        <v>128</v>
+      </c>
+      <c r="F85" s="22"/>
+      <c r="G85" s="16">
+        <v>0</v>
+      </c>
+      <c r="H85" s="16">
+        <v>0</v>
+      </c>
+      <c r="I85" s="16">
+        <v>0</v>
+      </c>
+      <c r="J85" s="16">
+        <v>0</v>
+      </c>
+      <c r="K85" s="16">
+        <v>0</v>
+      </c>
+      <c r="L85" s="16">
+        <v>0</v>
+      </c>
+      <c r="M85" s="16">
+        <v>0</v>
+      </c>
+      <c r="N85" s="16">
+        <v>0</v>
+      </c>
+      <c r="O85" s="16">
+        <v>0</v>
+      </c>
+      <c r="P85" s="16">
+        <v>0</v>
+      </c>
+      <c r="Q85" s="16">
+        <v>0</v>
+      </c>
+      <c r="R85" s="16">
+        <v>0</v>
+      </c>
+      <c r="S85" s="16">
+        <v>0</v>
+      </c>
+      <c r="T85" s="16">
+        <v>0</v>
+      </c>
+      <c r="U85" s="16">
+        <v>0</v>
+      </c>
+      <c r="V85" s="16">
+        <v>0</v>
+      </c>
+      <c r="W85" s="16">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="A86" s="4"/>
+      <c r="B86" s="12">
         <v>521001</v>
       </c>
-      <c r="C84" s="24" t="s">
-        <v>123</v>
-      </c>
-      <c r="D84" s="7">
+      <c r="C86" s="24" t="s">
+        <v>125</v>
+      </c>
+      <c r="D86" s="7">
         <v>65</v>
       </c>
-      <c r="E84" s="16" t="s">
-        <v>95</v>
-      </c>
-      <c r="F84" s="17">
-        <v>1</v>
-      </c>
-      <c r="G84" s="16">
-        <v>0</v>
-      </c>
-      <c r="H84" s="16">
-        <v>0</v>
-      </c>
-      <c r="I84" s="16">
-        <v>0</v>
-      </c>
-      <c r="J84" s="16">
-        <v>0</v>
-      </c>
-      <c r="K84" s="16">
-        <v>0</v>
-      </c>
-      <c r="L84" s="16">
-        <v>0</v>
-      </c>
-      <c r="M84" s="16">
-        <v>0</v>
-      </c>
-      <c r="N84" s="16">
-        <v>0</v>
-      </c>
-      <c r="O84" s="16">
-        <v>0</v>
-      </c>
-      <c r="P84" s="16">
-        <v>0</v>
-      </c>
-      <c r="Q84" s="16">
-        <v>0</v>
-      </c>
-      <c r="R84" s="16">
-        <v>0</v>
-      </c>
-      <c r="S84" s="16">
-        <v>0</v>
-      </c>
-      <c r="T84" s="16">
-        <v>0</v>
-      </c>
-      <c r="U84" s="16">
-        <v>0</v>
-      </c>
-      <c r="V84" s="16">
-        <v>0</v>
-      </c>
-      <c r="W84" s="16">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="85" spans="1:24" s="29" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A85" s="6"/>
-      <c r="B85" s="27">
-        <v>521003</v>
-      </c>
-      <c r="C85" s="23" t="s">
-        <v>125</v>
-      </c>
-      <c r="D85" s="8">
-        <v>21</v>
-      </c>
-      <c r="E85" s="28" t="s">
-        <v>95</v>
-      </c>
-      <c r="F85" s="22">
-        <v>1</v>
-      </c>
-      <c r="G85" s="16">
-        <v>0</v>
-      </c>
-      <c r="H85" s="16">
-        <v>0</v>
-      </c>
-      <c r="I85" s="16">
-        <v>0</v>
-      </c>
-      <c r="J85" s="16">
-        <v>0</v>
-      </c>
-      <c r="K85" s="16">
-        <v>0</v>
-      </c>
-      <c r="L85" s="16">
-        <v>0</v>
-      </c>
-      <c r="M85" s="16">
-        <v>0</v>
-      </c>
-      <c r="N85" s="16">
-        <v>0</v>
-      </c>
-      <c r="O85" s="16">
-        <v>0</v>
-      </c>
-      <c r="P85" s="16">
-        <v>0</v>
-      </c>
-      <c r="Q85" s="16">
-        <v>0</v>
-      </c>
-      <c r="R85" s="16">
-        <v>0</v>
-      </c>
-      <c r="S85" s="16">
-        <v>0</v>
-      </c>
-      <c r="T85" s="16">
-        <v>0</v>
-      </c>
-      <c r="U85" s="16">
-        <v>0</v>
-      </c>
-      <c r="V85" s="16">
-        <v>0</v>
-      </c>
-      <c r="W85" s="16">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="86" spans="1:24" s="29" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A86" s="6"/>
-      <c r="B86" s="27">
-        <v>521004</v>
-      </c>
-      <c r="C86" s="23" t="s">
-        <v>124</v>
-      </c>
-      <c r="D86" s="8">
-        <v>69</v>
-      </c>
-      <c r="E86" s="28" t="s">
-        <v>95</v>
-      </c>
-      <c r="F86" s="17">
-        <v>1</v>
-      </c>
+      <c r="E86" s="16" t="s">
+        <v>128</v>
+      </c>
+      <c r="F86" s="22"/>
       <c r="G86" s="16">
         <v>0</v>
       </c>
@@ -4738,139 +4508,207 @@
       <c r="W86" s="16">
         <v>0</v>
       </c>
-      <c r="X86"/>
-    </row>
-    <row r="87" spans="1:24" s="29" customFormat="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="87" spans="1:24" s="30" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A87" s="6"/>
       <c r="B87" s="27">
+        <v>521003</v>
+      </c>
+      <c r="C87" s="23" t="s">
+        <v>127</v>
+      </c>
+      <c r="D87" s="8">
+        <v>21</v>
+      </c>
+      <c r="E87" s="28" t="s">
+        <v>128</v>
+      </c>
+      <c r="F87" s="29"/>
+      <c r="G87" s="16">
+        <v>0</v>
+      </c>
+      <c r="H87" s="16">
+        <v>0</v>
+      </c>
+      <c r="I87" s="16">
+        <v>0</v>
+      </c>
+      <c r="J87" s="16">
+        <v>0</v>
+      </c>
+      <c r="K87" s="16">
+        <v>0</v>
+      </c>
+      <c r="L87" s="16">
+        <v>0</v>
+      </c>
+      <c r="M87" s="16">
+        <v>0</v>
+      </c>
+      <c r="N87" s="16">
+        <v>0</v>
+      </c>
+      <c r="O87" s="16">
+        <v>0</v>
+      </c>
+      <c r="P87" s="16">
+        <v>0</v>
+      </c>
+      <c r="Q87" s="16">
+        <v>0</v>
+      </c>
+      <c r="R87" s="16">
+        <v>0</v>
+      </c>
+      <c r="S87" s="16">
+        <v>0</v>
+      </c>
+      <c r="T87" s="16">
+        <v>0</v>
+      </c>
+      <c r="U87" s="16">
+        <v>0</v>
+      </c>
+      <c r="V87" s="16">
+        <v>0</v>
+      </c>
+      <c r="W87" s="16">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="1:24" s="30" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A88" s="6"/>
+      <c r="B88" s="27">
+        <v>521004</v>
+      </c>
+      <c r="C88" s="23" t="s">
+        <v>126</v>
+      </c>
+      <c r="D88" s="8">
+        <v>69</v>
+      </c>
+      <c r="E88" s="28" t="s">
+        <v>128</v>
+      </c>
+      <c r="F88" s="29"/>
+      <c r="G88" s="16">
+        <v>0</v>
+      </c>
+      <c r="H88" s="16">
+        <v>0</v>
+      </c>
+      <c r="I88" s="16">
+        <v>0</v>
+      </c>
+      <c r="J88" s="16">
+        <v>0</v>
+      </c>
+      <c r="K88" s="16">
+        <v>0</v>
+      </c>
+      <c r="L88" s="16">
+        <v>0</v>
+      </c>
+      <c r="M88" s="16">
+        <v>0</v>
+      </c>
+      <c r="N88" s="16">
+        <v>0</v>
+      </c>
+      <c r="O88" s="16">
+        <v>0</v>
+      </c>
+      <c r="P88" s="16">
+        <v>0</v>
+      </c>
+      <c r="Q88" s="16">
+        <v>0</v>
+      </c>
+      <c r="R88" s="16">
+        <v>0</v>
+      </c>
+      <c r="S88" s="16">
+        <v>0</v>
+      </c>
+      <c r="T88" s="16">
+        <v>0</v>
+      </c>
+      <c r="U88" s="16">
+        <v>0</v>
+      </c>
+      <c r="V88" s="16">
+        <v>0</v>
+      </c>
+      <c r="W88" s="16">
+        <v>0</v>
+      </c>
+      <c r="X88"/>
+    </row>
+    <row r="89" spans="1:24" s="30" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A89" s="6"/>
+      <c r="B89" s="27">
         <v>521005</v>
       </c>
-      <c r="C87" s="23" t="s">
-        <v>124</v>
-      </c>
-      <c r="D87" s="8">
+      <c r="C89" s="23" t="s">
+        <v>126</v>
+      </c>
+      <c r="D89" s="8">
         <v>62</v>
       </c>
-      <c r="E87" s="28" t="s">
-        <v>95</v>
-      </c>
-      <c r="F87" s="22">
-        <v>1</v>
-      </c>
-      <c r="G87" s="16">
-        <v>0</v>
-      </c>
-      <c r="H87" s="16">
-        <v>0</v>
-      </c>
-      <c r="I87" s="16">
-        <v>0</v>
-      </c>
-      <c r="J87" s="16">
-        <v>0</v>
-      </c>
-      <c r="K87" s="16">
-        <v>0</v>
-      </c>
-      <c r="L87" s="16">
-        <v>0</v>
-      </c>
-      <c r="M87" s="16">
-        <v>0</v>
-      </c>
-      <c r="N87" s="16">
-        <v>0</v>
-      </c>
-      <c r="O87" s="16">
-        <v>0</v>
-      </c>
-      <c r="P87" s="16">
-        <v>0</v>
-      </c>
-      <c r="Q87" s="16">
-        <v>0</v>
-      </c>
-      <c r="R87" s="16">
-        <v>0</v>
-      </c>
-      <c r="S87" s="16">
-        <v>0</v>
-      </c>
-      <c r="T87" s="16">
-        <v>0</v>
-      </c>
-      <c r="U87" s="16">
-        <v>0</v>
-      </c>
-      <c r="V87" s="16">
-        <v>0</v>
-      </c>
-      <c r="W87" s="16">
-        <v>0</v>
-      </c>
-      <c r="X87"/>
-    </row>
-    <row r="88" spans="1:24" ht="38.25" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A88" s="4"/>
-      <c r="B88" s="13" t="s">
-        <v>72</v>
-      </c>
-      <c r="C88" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="D88" s="7"/>
-      <c r="E88" s="16"/>
-      <c r="F88" s="17">
-        <v>1</v>
-      </c>
-      <c r="G88" s="17"/>
-      <c r="H88" s="17"/>
-      <c r="I88" s="17"/>
-      <c r="J88" s="17"/>
-      <c r="K88" s="17"/>
-      <c r="L88" s="17"/>
-      <c r="M88" s="17"/>
-      <c r="N88" s="17"/>
-      <c r="O88" s="17"/>
-      <c r="P88" s="17"/>
-      <c r="Q88" s="17"/>
-      <c r="R88" s="17"/>
-      <c r="S88" s="17"/>
-      <c r="T88" s="17"/>
-      <c r="U88" s="17"/>
-      <c r="V88" s="17"/>
-      <c r="W88" s="17"/>
-    </row>
-    <row r="89" spans="1:24" s="43" customFormat="1" ht="25.5" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A89" s="37"/>
-      <c r="B89" s="38">
-        <v>530000</v>
-      </c>
-      <c r="C89" s="39" t="s">
-        <v>73</v>
-      </c>
-      <c r="D89" s="40"/>
-      <c r="E89" s="41"/>
-      <c r="F89" s="22">
-        <v>1</v>
-      </c>
-      <c r="G89" s="42"/>
-      <c r="H89" s="42"/>
-      <c r="I89" s="42"/>
-      <c r="J89" s="42"/>
-      <c r="K89" s="42"/>
-      <c r="L89" s="42"/>
-      <c r="M89" s="42"/>
-      <c r="N89" s="42"/>
-      <c r="O89" s="42"/>
-      <c r="P89" s="42"/>
-      <c r="Q89" s="42"/>
-      <c r="R89" s="42"/>
-      <c r="S89" s="42"/>
-      <c r="T89" s="42"/>
-      <c r="U89" s="42"/>
-      <c r="V89" s="42"/>
-      <c r="W89" s="42"/>
+      <c r="E89" s="28"/>
+      <c r="F89" s="29"/>
+      <c r="G89" s="16">
+        <v>0</v>
+      </c>
+      <c r="H89" s="16">
+        <v>0</v>
+      </c>
+      <c r="I89" s="16">
+        <v>0</v>
+      </c>
+      <c r="J89" s="16">
+        <v>0</v>
+      </c>
+      <c r="K89" s="16">
+        <v>0</v>
+      </c>
+      <c r="L89" s="16">
+        <v>0</v>
+      </c>
+      <c r="M89" s="16">
+        <v>0</v>
+      </c>
+      <c r="N89" s="16">
+        <v>0</v>
+      </c>
+      <c r="O89" s="16">
+        <v>0</v>
+      </c>
+      <c r="P89" s="16">
+        <v>0</v>
+      </c>
+      <c r="Q89" s="16">
+        <v>0</v>
+      </c>
+      <c r="R89" s="16">
+        <v>0</v>
+      </c>
+      <c r="S89" s="16">
+        <v>0</v>
+      </c>
+      <c r="T89" s="16">
+        <v>0</v>
+      </c>
+      <c r="U89" s="16">
+        <v>0</v>
+      </c>
+      <c r="V89" s="16">
+        <v>0</v>
+      </c>
+      <c r="W89" s="16">
+        <v>0</v>
+      </c>
+      <c r="X89"/>
     </row>
     <row r="90" spans="1:24" ht="38.25" hidden="1" x14ac:dyDescent="0.25">
       <c r="A90" s="4"/>
@@ -4882,9 +4720,7 @@
       </c>
       <c r="D90" s="7"/>
       <c r="E90" s="16"/>
-      <c r="F90" s="17">
-        <v>1</v>
-      </c>
+      <c r="F90" s="17"/>
       <c r="G90" s="17"/>
       <c r="H90" s="17"/>
       <c r="I90" s="17"/>
@@ -4903,181 +4739,133 @@
       <c r="V90" s="17"/>
       <c r="W90" s="17"/>
     </row>
-    <row r="91" spans="1:24" s="50" customFormat="1" ht="25.5" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A91" s="44"/>
-      <c r="B91" s="45">
+    <row r="91" spans="1:24" s="44" customFormat="1" ht="25.5" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A91" s="38"/>
+      <c r="B91" s="39">
+        <v>530000</v>
+      </c>
+      <c r="C91" s="40" t="s">
+        <v>75</v>
+      </c>
+      <c r="D91" s="41"/>
+      <c r="E91" s="42"/>
+      <c r="F91" s="43"/>
+      <c r="G91" s="43"/>
+      <c r="H91" s="43"/>
+      <c r="I91" s="43"/>
+      <c r="J91" s="43"/>
+      <c r="K91" s="43"/>
+      <c r="L91" s="43"/>
+      <c r="M91" s="43"/>
+      <c r="N91" s="43"/>
+      <c r="O91" s="43"/>
+      <c r="P91" s="43"/>
+      <c r="Q91" s="43"/>
+      <c r="R91" s="43"/>
+      <c r="S91" s="43"/>
+      <c r="T91" s="43"/>
+      <c r="U91" s="43"/>
+      <c r="V91" s="43"/>
+      <c r="W91" s="43"/>
+    </row>
+    <row r="92" spans="1:24" ht="38.25" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A92" s="4"/>
+      <c r="B92" s="13" t="s">
+        <v>76</v>
+      </c>
+      <c r="C92" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="D92" s="7"/>
+      <c r="E92" s="16"/>
+      <c r="F92" s="17"/>
+      <c r="G92" s="17"/>
+      <c r="H92" s="17"/>
+      <c r="I92" s="17"/>
+      <c r="J92" s="17"/>
+      <c r="K92" s="17"/>
+      <c r="L92" s="17"/>
+      <c r="M92" s="17"/>
+      <c r="N92" s="17"/>
+      <c r="O92" s="17"/>
+      <c r="P92" s="17"/>
+      <c r="Q92" s="17"/>
+      <c r="R92" s="17"/>
+      <c r="S92" s="17"/>
+      <c r="T92" s="17"/>
+      <c r="U92" s="17"/>
+      <c r="V92" s="17"/>
+      <c r="W92" s="17"/>
+    </row>
+    <row r="93" spans="1:24" s="51" customFormat="1" ht="25.5" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A93" s="45"/>
+      <c r="B93" s="46">
         <v>540000</v>
       </c>
-      <c r="C91" s="46" t="s">
-        <v>75</v>
-      </c>
-      <c r="D91" s="47"/>
-      <c r="E91" s="48"/>
-      <c r="F91" s="22">
-        <v>1</v>
-      </c>
-      <c r="G91" s="49"/>
-      <c r="H91" s="49"/>
-      <c r="I91" s="49"/>
-      <c r="J91" s="49"/>
-      <c r="K91" s="49"/>
-      <c r="L91" s="49"/>
-      <c r="M91" s="49"/>
-      <c r="N91" s="49"/>
-      <c r="O91" s="49"/>
-      <c r="P91" s="49"/>
-      <c r="Q91" s="49"/>
-      <c r="R91" s="49"/>
-      <c r="S91" s="49"/>
-      <c r="T91" s="49"/>
-      <c r="U91" s="49"/>
-      <c r="V91" s="49"/>
-      <c r="W91" s="49"/>
-    </row>
-    <row r="92" spans="1:24" x14ac:dyDescent="0.25">
-      <c r="A92" s="4"/>
-      <c r="B92" s="12">
-        <v>541000</v>
-      </c>
-      <c r="C92" s="23" t="s">
-        <v>124</v>
-      </c>
-      <c r="D92" s="7">
-        <v>68</v>
-      </c>
-      <c r="E92" s="16" t="s">
-        <v>95</v>
-      </c>
-      <c r="F92" s="17">
-        <v>1</v>
-      </c>
-      <c r="G92" s="16">
-        <v>0</v>
-      </c>
-      <c r="H92" s="16">
-        <v>0</v>
-      </c>
-      <c r="I92" s="16">
-        <v>0</v>
-      </c>
-      <c r="J92" s="16">
-        <v>0</v>
-      </c>
-      <c r="K92" s="16">
-        <v>1</v>
-      </c>
-      <c r="L92" s="16">
-        <v>1</v>
-      </c>
-      <c r="M92" s="16">
-        <v>1</v>
-      </c>
-      <c r="N92" s="16">
-        <v>1</v>
-      </c>
-      <c r="O92" s="16">
-        <v>0</v>
-      </c>
-      <c r="P92" s="16">
-        <v>0</v>
-      </c>
-      <c r="Q92" s="16">
-        <v>0</v>
-      </c>
-      <c r="R92" s="16">
-        <v>0</v>
-      </c>
-      <c r="S92" s="16">
-        <v>0</v>
-      </c>
-      <c r="T92" s="16">
-        <v>0</v>
-      </c>
-      <c r="U92" s="16">
-        <v>0</v>
-      </c>
-      <c r="V92" s="16">
-        <v>0</v>
-      </c>
-      <c r="W92" s="16">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="93" spans="1:24" ht="38.25" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A93" s="4"/>
-      <c r="B93" s="13" t="s">
-        <v>76</v>
-      </c>
-      <c r="C93" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="D93" s="7"/>
-      <c r="E93" s="16"/>
-      <c r="F93" s="22">
-        <v>1</v>
-      </c>
-      <c r="G93" s="17"/>
-      <c r="H93" s="17"/>
-      <c r="I93" s="17"/>
-      <c r="J93" s="17"/>
-      <c r="K93" s="17"/>
-      <c r="L93" s="17"/>
-      <c r="M93" s="17"/>
-      <c r="N93" s="17"/>
-      <c r="O93" s="17"/>
-      <c r="P93" s="17"/>
-      <c r="Q93" s="17"/>
-      <c r="R93" s="17"/>
-      <c r="S93" s="17"/>
-      <c r="T93" s="17"/>
-      <c r="U93" s="17"/>
-      <c r="V93" s="17"/>
-      <c r="W93" s="17"/>
-    </row>
-    <row r="94" spans="1:24" s="57" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A94" s="51"/>
-      <c r="B94" s="52">
-        <v>550000</v>
-      </c>
-      <c r="C94" s="53" t="s">
+      <c r="C93" s="47" t="s">
         <v>77</v>
       </c>
-      <c r="D94" s="54"/>
-      <c r="E94" s="55"/>
-      <c r="F94" s="17">
-        <v>1</v>
-      </c>
-      <c r="G94" s="56"/>
-      <c r="H94" s="56"/>
-      <c r="I94" s="56"/>
-      <c r="J94" s="56"/>
-      <c r="K94" s="56"/>
-      <c r="L94" s="56"/>
-      <c r="M94" s="56"/>
-      <c r="N94" s="56"/>
-      <c r="O94" s="56"/>
-      <c r="P94" s="56"/>
-      <c r="Q94" s="56"/>
-      <c r="R94" s="56"/>
-      <c r="S94" s="56"/>
-      <c r="T94" s="56"/>
-      <c r="U94" s="56"/>
-      <c r="V94" s="56"/>
-      <c r="W94" s="56"/>
+      <c r="D93" s="48"/>
+      <c r="E93" s="49"/>
+      <c r="F93" s="50"/>
+      <c r="G93" s="50"/>
+      <c r="H93" s="50"/>
+      <c r="I93" s="50"/>
+      <c r="J93" s="50"/>
+      <c r="K93" s="50"/>
+      <c r="L93" s="50"/>
+      <c r="M93" s="50"/>
+      <c r="N93" s="50"/>
+      <c r="O93" s="50"/>
+      <c r="P93" s="50"/>
+      <c r="Q93" s="50"/>
+      <c r="R93" s="50"/>
+      <c r="S93" s="50"/>
+      <c r="T93" s="50"/>
+      <c r="U93" s="50"/>
+      <c r="V93" s="50"/>
+      <c r="W93" s="50"/>
+    </row>
+    <row r="94" spans="1:24" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A94" s="4"/>
+      <c r="B94" s="12" t="s">
+        <v>142</v>
+      </c>
+      <c r="C94" s="23" t="s">
+        <v>142</v>
+      </c>
+      <c r="D94" s="7"/>
+      <c r="E94" s="16"/>
+      <c r="F94" s="22"/>
+      <c r="G94" s="16"/>
+      <c r="H94" s="16"/>
+      <c r="I94" s="16"/>
+      <c r="J94" s="16"/>
+      <c r="K94" s="16"/>
+      <c r="L94" s="16"/>
+      <c r="M94" s="16"/>
+      <c r="N94" s="16"/>
+      <c r="O94" s="16"/>
+      <c r="P94" s="16"/>
+      <c r="Q94" s="16"/>
+      <c r="R94" s="16"/>
+      <c r="S94" s="16"/>
+      <c r="T94" s="16"/>
+      <c r="U94" s="16"/>
+      <c r="V94" s="16"/>
+      <c r="W94" s="16"/>
     </row>
     <row r="95" spans="1:24" ht="38.25" hidden="1" x14ac:dyDescent="0.25">
       <c r="A95" s="4"/>
-      <c r="B95" s="14" t="s">
+      <c r="B95" s="13" t="s">
         <v>78</v>
       </c>
-      <c r="C95" s="5" t="s">
+      <c r="C95" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="D95" s="8"/>
+      <c r="D95" s="7"/>
       <c r="E95" s="16"/>
-      <c r="F95" s="22">
-        <v>1</v>
-      </c>
+      <c r="F95" s="17"/>
       <c r="G95" s="17"/>
       <c r="H95" s="17"/>
       <c r="I95" s="17"/>
@@ -5096,430 +4884,414 @@
       <c r="V95" s="17"/>
       <c r="W95" s="17"/>
     </row>
-    <row r="96" spans="1:24" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A96" s="4"/>
-      <c r="B96" s="11">
+    <row r="96" spans="1:24" s="58" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A96" s="52"/>
+      <c r="B96" s="53">
+        <v>550000</v>
+      </c>
+      <c r="C96" s="54" t="s">
+        <v>79</v>
+      </c>
+      <c r="D96" s="55"/>
+      <c r="E96" s="56"/>
+      <c r="F96" s="57"/>
+      <c r="G96" s="57"/>
+      <c r="H96" s="57"/>
+      <c r="I96" s="57"/>
+      <c r="J96" s="57"/>
+      <c r="K96" s="57"/>
+      <c r="L96" s="57"/>
+      <c r="M96" s="57"/>
+      <c r="N96" s="57"/>
+      <c r="O96" s="57"/>
+      <c r="P96" s="57"/>
+      <c r="Q96" s="57"/>
+      <c r="R96" s="57"/>
+      <c r="S96" s="57"/>
+      <c r="T96" s="57"/>
+      <c r="U96" s="57"/>
+      <c r="V96" s="57"/>
+      <c r="W96" s="57"/>
+    </row>
+    <row r="97" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A97" s="4"/>
+      <c r="B97" s="14">
+        <v>551000</v>
+      </c>
+      <c r="C97" s="23" t="s">
+        <v>126</v>
+      </c>
+      <c r="D97" s="8">
+        <v>68</v>
+      </c>
+      <c r="E97" s="16" t="s">
+        <v>97</v>
+      </c>
+      <c r="F97" s="17"/>
+      <c r="G97" s="17">
+        <v>0</v>
+      </c>
+      <c r="H97" s="17">
+        <v>0</v>
+      </c>
+      <c r="I97" s="17">
+        <v>0</v>
+      </c>
+      <c r="J97" s="17">
+        <v>0</v>
+      </c>
+      <c r="K97" s="17">
+        <v>1</v>
+      </c>
+      <c r="L97" s="17">
+        <v>1</v>
+      </c>
+      <c r="M97" s="17">
+        <v>1</v>
+      </c>
+      <c r="N97" s="17">
+        <v>1</v>
+      </c>
+      <c r="O97" s="17">
+        <v>0</v>
+      </c>
+      <c r="P97" s="17">
+        <v>0</v>
+      </c>
+      <c r="Q97" s="17">
+        <v>0</v>
+      </c>
+      <c r="R97" s="17">
+        <v>0</v>
+      </c>
+      <c r="S97" s="17">
+        <v>1</v>
+      </c>
+      <c r="T97" s="17">
+        <v>0</v>
+      </c>
+      <c r="U97" s="17">
+        <v>0</v>
+      </c>
+      <c r="V97" s="17">
+        <v>0</v>
+      </c>
+      <c r="W97" s="17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="1:23" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A98" s="4"/>
+      <c r="B98" s="11">
         <v>799999</v>
       </c>
-      <c r="C96" s="3" t="s">
+      <c r="C98" s="3" t="s">
+        <v>80</v>
+      </c>
+      <c r="D98" s="7"/>
+      <c r="E98" s="16"/>
+      <c r="F98" s="17"/>
+      <c r="G98" s="17"/>
+      <c r="H98" s="17"/>
+      <c r="I98" s="17"/>
+      <c r="J98" s="17"/>
+      <c r="K98" s="17"/>
+      <c r="L98" s="17"/>
+      <c r="M98" s="17"/>
+      <c r="N98" s="17"/>
+      <c r="O98" s="17"/>
+      <c r="P98" s="17"/>
+      <c r="Q98" s="17"/>
+      <c r="R98" s="17"/>
+      <c r="S98" s="17"/>
+      <c r="T98" s="17"/>
+      <c r="U98" s="17"/>
+      <c r="V98" s="17"/>
+      <c r="W98" s="17"/>
+    </row>
+    <row r="99" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A99" s="2" t="s">
+        <v>81</v>
+      </c>
+      <c r="B99" s="11">
+        <v>810000</v>
+      </c>
+      <c r="C99" s="23" t="s">
+        <v>82</v>
+      </c>
+      <c r="D99" s="7">
+        <v>81</v>
+      </c>
+      <c r="E99" s="16" t="s">
+        <v>98</v>
+      </c>
+      <c r="F99" s="22"/>
+      <c r="G99" s="16">
+        <v>0</v>
+      </c>
+      <c r="H99" s="16">
+        <v>0</v>
+      </c>
+      <c r="I99" s="16">
+        <v>0</v>
+      </c>
+      <c r="J99" s="16">
+        <v>0</v>
+      </c>
+      <c r="K99" s="16">
+        <v>0</v>
+      </c>
+      <c r="L99" s="16">
+        <v>0</v>
+      </c>
+      <c r="M99" s="16">
+        <v>0</v>
+      </c>
+      <c r="N99" s="16">
+        <v>0</v>
+      </c>
+      <c r="O99" s="16">
+        <v>0</v>
+      </c>
+      <c r="P99" s="16">
+        <v>0</v>
+      </c>
+      <c r="Q99" s="16">
+        <v>0</v>
+      </c>
+      <c r="R99" s="16">
+        <v>0</v>
+      </c>
+      <c r="S99" s="16">
+        <v>0</v>
+      </c>
+      <c r="T99" s="16">
+        <v>0</v>
+      </c>
+      <c r="U99" s="16">
+        <v>0</v>
+      </c>
+      <c r="V99" s="16">
+        <v>0</v>
+      </c>
+      <c r="W99" s="16">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A100" s="6"/>
+      <c r="B100" s="11">
+        <v>810001</v>
+      </c>
+      <c r="C100" s="23" t="s">
+        <v>83</v>
+      </c>
+      <c r="D100" s="7">
+        <v>82</v>
+      </c>
+      <c r="E100" s="16" t="s">
+        <v>98</v>
+      </c>
+      <c r="F100" s="22"/>
+      <c r="G100" s="16">
+        <v>0</v>
+      </c>
+      <c r="H100" s="16">
+        <v>0</v>
+      </c>
+      <c r="I100" s="16">
+        <v>0</v>
+      </c>
+      <c r="J100" s="16">
+        <v>0</v>
+      </c>
+      <c r="K100" s="16">
+        <v>0</v>
+      </c>
+      <c r="L100" s="16">
+        <v>0</v>
+      </c>
+      <c r="M100" s="16">
+        <v>0</v>
+      </c>
+      <c r="N100" s="16">
+        <v>0</v>
+      </c>
+      <c r="O100" s="16">
+        <v>0</v>
+      </c>
+      <c r="P100" s="16">
+        <v>0</v>
+      </c>
+      <c r="Q100" s="16">
+        <v>0</v>
+      </c>
+      <c r="R100" s="16">
+        <v>0</v>
+      </c>
+      <c r="S100" s="16">
+        <v>0</v>
+      </c>
+      <c r="T100" s="16">
+        <v>0</v>
+      </c>
+      <c r="U100" s="16">
+        <v>0</v>
+      </c>
+      <c r="V100" s="16">
+        <v>0</v>
+      </c>
+      <c r="W100" s="16">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="101" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A101" s="6"/>
+      <c r="B101" s="61">
+        <v>810002</v>
+      </c>
+      <c r="C101" s="23" t="s">
+        <v>84</v>
+      </c>
+      <c r="D101" s="7">
+        <v>72</v>
+      </c>
+      <c r="E101" s="16" t="s">
+        <v>98</v>
+      </c>
+      <c r="F101" s="22"/>
+      <c r="G101" s="16">
+        <v>0</v>
+      </c>
+      <c r="H101" s="16">
+        <v>0</v>
+      </c>
+      <c r="I101" s="16">
+        <v>0</v>
+      </c>
+      <c r="J101" s="16">
+        <v>0</v>
+      </c>
+      <c r="K101" s="16">
+        <v>0</v>
+      </c>
+      <c r="L101" s="16">
+        <v>0</v>
+      </c>
+      <c r="M101" s="16">
+        <v>0</v>
+      </c>
+      <c r="N101" s="16">
+        <v>0</v>
+      </c>
+      <c r="O101" s="16">
+        <v>0</v>
+      </c>
+      <c r="P101" s="16">
+        <v>0</v>
+      </c>
+      <c r="Q101" s="16">
+        <v>0</v>
+      </c>
+      <c r="R101" s="16">
+        <v>0</v>
+      </c>
+      <c r="S101" s="16">
+        <v>0</v>
+      </c>
+      <c r="T101" s="16">
+        <v>0</v>
+      </c>
+      <c r="U101" s="16">
+        <v>0</v>
+      </c>
+      <c r="V101" s="16">
+        <v>0</v>
+      </c>
+      <c r="W101" s="16">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="1:23" ht="25.5" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A102" s="6"/>
+      <c r="B102" s="61">
+        <v>810003</v>
+      </c>
+      <c r="C102" s="3" t="s">
+        <v>85</v>
+      </c>
+      <c r="D102" s="41"/>
+      <c r="E102" s="16" t="s">
+        <v>98</v>
+      </c>
+      <c r="F102" s="17"/>
+      <c r="G102" s="16">
+        <v>0</v>
+      </c>
+      <c r="H102" s="16">
+        <v>0</v>
+      </c>
+      <c r="I102" s="16">
+        <v>0</v>
+      </c>
+      <c r="J102" s="16">
+        <v>0</v>
+      </c>
+      <c r="K102" s="16">
+        <v>0</v>
+      </c>
+      <c r="L102" s="16">
+        <v>0</v>
+      </c>
+      <c r="M102" s="16">
+        <v>0</v>
+      </c>
+      <c r="N102" s="16">
+        <v>0</v>
+      </c>
+      <c r="O102" s="16">
+        <v>0</v>
+      </c>
+      <c r="P102" s="16">
+        <v>0</v>
+      </c>
+      <c r="Q102" s="16">
+        <v>0</v>
+      </c>
+      <c r="R102" s="16">
+        <v>0</v>
+      </c>
+      <c r="S102" s="16">
+        <v>0</v>
+      </c>
+      <c r="T102" s="16">
+        <v>0</v>
+      </c>
+      <c r="U102" s="16">
+        <v>0</v>
+      </c>
+      <c r="V102" s="16">
+        <v>0</v>
+      </c>
+      <c r="W102" s="16">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="103" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A103" s="6"/>
+      <c r="B103" s="61">
+        <v>810004</v>
+      </c>
+      <c r="C103" s="23" t="s">
+        <v>86</v>
+      </c>
+      <c r="D103" s="7">
         <v>79</v>
       </c>
-      <c r="D96" s="7"/>
-      <c r="E96" s="16"/>
-      <c r="F96" s="17">
-        <v>1</v>
-      </c>
-      <c r="G96" s="17"/>
-      <c r="H96" s="17"/>
-      <c r="I96" s="17"/>
-      <c r="J96" s="17"/>
-      <c r="K96" s="17"/>
-      <c r="L96" s="17"/>
-      <c r="M96" s="17"/>
-      <c r="N96" s="17"/>
-      <c r="O96" s="17"/>
-      <c r="P96" s="17"/>
-      <c r="Q96" s="17"/>
-      <c r="R96" s="17"/>
-      <c r="S96" s="17"/>
-      <c r="T96" s="17"/>
-      <c r="U96" s="17"/>
-      <c r="V96" s="17"/>
-      <c r="W96" s="17"/>
-    </row>
-    <row r="97" spans="1:31" x14ac:dyDescent="0.25">
-      <c r="A97" s="2" t="s">
-        <v>80</v>
-      </c>
-      <c r="B97" s="11">
-        <v>810000</v>
-      </c>
-      <c r="C97" s="23" t="s">
-        <v>81</v>
-      </c>
-      <c r="D97" s="7">
-        <v>81</v>
-      </c>
-      <c r="E97" s="16" t="s">
-        <v>96</v>
-      </c>
-      <c r="F97" s="22">
-        <v>1</v>
-      </c>
-      <c r="G97" s="16">
-        <v>0</v>
-      </c>
-      <c r="H97" s="16">
-        <v>0</v>
-      </c>
-      <c r="I97" s="16">
-        <v>0</v>
-      </c>
-      <c r="J97" s="16">
-        <v>0</v>
-      </c>
-      <c r="K97" s="16">
-        <v>0</v>
-      </c>
-      <c r="L97" s="16">
-        <v>0</v>
-      </c>
-      <c r="M97" s="16">
-        <v>0</v>
-      </c>
-      <c r="N97" s="16">
-        <v>0</v>
-      </c>
-      <c r="O97" s="16">
-        <v>0</v>
-      </c>
-      <c r="P97" s="16">
-        <v>0</v>
-      </c>
-      <c r="Q97" s="16">
-        <v>0</v>
-      </c>
-      <c r="R97" s="16">
-        <v>0</v>
-      </c>
-      <c r="S97" s="16">
-        <v>0</v>
-      </c>
-      <c r="T97" s="16">
-        <v>0</v>
-      </c>
-      <c r="U97" s="16">
-        <v>0</v>
-      </c>
-      <c r="V97" s="16">
-        <v>0</v>
-      </c>
-      <c r="W97" s="16">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="98" spans="1:31" x14ac:dyDescent="0.25">
-      <c r="A98" s="6"/>
-      <c r="B98" s="11">
-        <v>810001</v>
-      </c>
-      <c r="C98" s="23" t="s">
-        <v>82</v>
-      </c>
-      <c r="D98" s="7">
-        <v>82</v>
-      </c>
-      <c r="E98" s="16" t="s">
-        <v>96</v>
-      </c>
-      <c r="F98" s="17">
-        <v>1</v>
-      </c>
-      <c r="G98" s="16">
-        <v>0</v>
-      </c>
-      <c r="H98" s="16">
-        <v>0</v>
-      </c>
-      <c r="I98" s="16">
-        <v>0</v>
-      </c>
-      <c r="J98" s="16">
-        <v>0</v>
-      </c>
-      <c r="K98" s="16">
-        <v>0</v>
-      </c>
-      <c r="L98" s="16">
-        <v>0</v>
-      </c>
-      <c r="M98" s="16">
-        <v>0</v>
-      </c>
-      <c r="N98" s="16">
-        <v>0</v>
-      </c>
-      <c r="O98" s="16">
-        <v>0</v>
-      </c>
-      <c r="P98" s="16">
-        <v>0</v>
-      </c>
-      <c r="Q98" s="16">
-        <v>0</v>
-      </c>
-      <c r="R98" s="16">
-        <v>0</v>
-      </c>
-      <c r="S98" s="16">
-        <v>0</v>
-      </c>
-      <c r="T98" s="16">
-        <v>0</v>
-      </c>
-      <c r="U98" s="16">
-        <v>0</v>
-      </c>
-      <c r="V98" s="16">
-        <v>0</v>
-      </c>
-      <c r="W98" s="16">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="99" spans="1:31" x14ac:dyDescent="0.25">
-      <c r="A99" s="6"/>
-      <c r="B99" s="60">
-        <v>810002</v>
-      </c>
-      <c r="C99" s="23" t="s">
-        <v>83</v>
-      </c>
-      <c r="D99" s="7">
-        <v>72</v>
-      </c>
-      <c r="E99" s="16" t="s">
-        <v>96</v>
-      </c>
-      <c r="F99" s="22">
-        <v>1</v>
-      </c>
-      <c r="G99" s="16">
-        <v>0</v>
-      </c>
-      <c r="H99" s="16">
-        <v>0</v>
-      </c>
-      <c r="I99" s="16">
-        <v>0</v>
-      </c>
-      <c r="J99" s="16">
-        <v>0</v>
-      </c>
-      <c r="K99" s="16">
-        <v>0</v>
-      </c>
-      <c r="L99" s="16">
-        <v>0</v>
-      </c>
-      <c r="M99" s="16">
-        <v>0</v>
-      </c>
-      <c r="N99" s="16">
-        <v>0</v>
-      </c>
-      <c r="O99" s="16">
-        <v>0</v>
-      </c>
-      <c r="P99" s="16">
-        <v>0</v>
-      </c>
-      <c r="Q99" s="16">
-        <v>0</v>
-      </c>
-      <c r="R99" s="16">
-        <v>0</v>
-      </c>
-      <c r="S99" s="16">
-        <v>0</v>
-      </c>
-      <c r="T99" s="16">
-        <v>0</v>
-      </c>
-      <c r="U99" s="16">
-        <v>0</v>
-      </c>
-      <c r="V99" s="16">
-        <v>0</v>
-      </c>
-      <c r="W99" s="16">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="100" spans="1:31" ht="25.5" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A100" s="6"/>
-      <c r="B100" s="60">
-        <v>810003</v>
-      </c>
-      <c r="C100" s="3" t="s">
-        <v>84</v>
-      </c>
-      <c r="D100" s="40"/>
-      <c r="E100" s="16" t="s">
-        <v>96</v>
-      </c>
-      <c r="F100" s="17">
-        <v>1</v>
-      </c>
-      <c r="G100" s="16">
-        <v>0</v>
-      </c>
-      <c r="H100" s="16">
-        <v>0</v>
-      </c>
-      <c r="I100" s="16">
-        <v>0</v>
-      </c>
-      <c r="J100" s="16">
-        <v>0</v>
-      </c>
-      <c r="K100" s="16">
-        <v>0</v>
-      </c>
-      <c r="L100" s="16">
-        <v>0</v>
-      </c>
-      <c r="M100" s="16">
-        <v>0</v>
-      </c>
-      <c r="N100" s="16">
-        <v>0</v>
-      </c>
-      <c r="O100" s="16">
-        <v>0</v>
-      </c>
-      <c r="P100" s="16">
-        <v>0</v>
-      </c>
-      <c r="Q100" s="16">
-        <v>0</v>
-      </c>
-      <c r="R100" s="16">
-        <v>0</v>
-      </c>
-      <c r="S100" s="16">
-        <v>0</v>
-      </c>
-      <c r="T100" s="16">
-        <v>0</v>
-      </c>
-      <c r="U100" s="16">
-        <v>0</v>
-      </c>
-      <c r="V100" s="16">
-        <v>0</v>
-      </c>
-      <c r="W100" s="16">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="101" spans="1:31" x14ac:dyDescent="0.25">
-      <c r="A101" s="6"/>
-      <c r="B101" s="60">
-        <v>810004</v>
-      </c>
-      <c r="C101" s="23" t="s">
-        <v>85</v>
-      </c>
-      <c r="D101" s="7">
-        <v>79</v>
-      </c>
-      <c r="E101" s="16" t="s">
-        <v>96</v>
-      </c>
-      <c r="F101" s="22">
-        <v>1</v>
-      </c>
-      <c r="G101" s="16">
-        <v>0</v>
-      </c>
-      <c r="H101" s="16">
-        <v>0</v>
-      </c>
-      <c r="I101" s="16">
-        <v>0</v>
-      </c>
-      <c r="J101" s="16">
-        <v>0</v>
-      </c>
-      <c r="K101" s="16">
-        <v>0</v>
-      </c>
-      <c r="L101" s="16">
-        <v>0</v>
-      </c>
-      <c r="M101" s="16">
-        <v>0</v>
-      </c>
-      <c r="N101" s="16">
-        <v>0</v>
-      </c>
-      <c r="O101" s="16">
-        <v>0</v>
-      </c>
-      <c r="P101" s="16">
-        <v>0</v>
-      </c>
-      <c r="Q101" s="16">
-        <v>0</v>
-      </c>
-      <c r="R101" s="16">
-        <v>0</v>
-      </c>
-      <c r="S101" s="16">
-        <v>0</v>
-      </c>
-      <c r="T101" s="16">
-        <v>0</v>
-      </c>
-      <c r="U101" s="16">
-        <v>0</v>
-      </c>
-      <c r="V101" s="16">
-        <v>0</v>
-      </c>
-      <c r="W101" s="16">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="102" spans="1:31" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A102" s="6"/>
-      <c r="B102" s="11">
-        <v>810005</v>
-      </c>
-      <c r="C102" s="3" t="s">
-        <v>86</v>
-      </c>
-      <c r="D102" s="7"/>
-      <c r="E102" s="16"/>
-      <c r="F102" s="17">
-        <v>1</v>
-      </c>
-      <c r="G102" s="17"/>
-      <c r="H102" s="17"/>
-      <c r="I102" s="17"/>
-      <c r="J102" s="17"/>
-      <c r="K102" s="17"/>
-      <c r="L102" s="17"/>
-      <c r="M102" s="17"/>
-      <c r="N102" s="17"/>
-      <c r="O102" s="17"/>
-      <c r="P102" s="17"/>
-      <c r="Q102" s="17"/>
-      <c r="R102" s="17"/>
-      <c r="S102" s="17"/>
-      <c r="T102" s="17"/>
-      <c r="U102" s="17"/>
-      <c r="V102" s="17"/>
-      <c r="W102" s="17"/>
-    </row>
-    <row r="103" spans="1:31" x14ac:dyDescent="0.25">
-      <c r="A103" s="6"/>
-      <c r="B103" s="11">
-        <v>810006</v>
-      </c>
-      <c r="C103" s="23" t="s">
-        <v>87</v>
-      </c>
-      <c r="D103" s="7">
-        <v>87</v>
-      </c>
       <c r="E103" s="16" t="s">
-        <v>96</v>
-      </c>
-      <c r="F103" s="22">
-        <v>1</v>
-      </c>
+        <v>98</v>
+      </c>
+      <c r="F103" s="22"/>
       <c r="G103" s="16">
         <v>0</v>
       </c>
@@ -5572,19 +5344,17 @@
         <v>0</v>
       </c>
     </row>
-    <row r="104" spans="1:31" hidden="1" x14ac:dyDescent="0.25">
+    <row r="104" spans="1:23" hidden="1" x14ac:dyDescent="0.25">
       <c r="A104" s="6"/>
       <c r="B104" s="11">
-        <v>810007</v>
+        <v>810005</v>
       </c>
       <c r="C104" s="3" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="D104" s="7"/>
       <c r="E104" s="16"/>
-      <c r="F104" s="17">
-        <v>1</v>
-      </c>
+      <c r="F104" s="17"/>
       <c r="G104" s="17"/>
       <c r="H104" s="17"/>
       <c r="I104" s="17"/>
@@ -5603,50 +5373,84 @@
       <c r="V104" s="17"/>
       <c r="W104" s="17"/>
     </row>
-    <row r="105" spans="1:31" hidden="1" x14ac:dyDescent="0.25">
+    <row r="105" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A105" s="6"/>
       <c r="B105" s="11">
-        <v>810008</v>
-      </c>
-      <c r="C105" s="3" t="s">
-        <v>89</v>
-      </c>
-      <c r="D105" s="7"/>
-      <c r="E105" s="16"/>
-      <c r="F105" s="22">
-        <v>1</v>
-      </c>
-      <c r="G105" s="17"/>
-      <c r="H105" s="17"/>
-      <c r="I105" s="17"/>
-      <c r="J105" s="17"/>
-      <c r="K105" s="17"/>
-      <c r="L105" s="17"/>
-      <c r="M105" s="17"/>
-      <c r="N105" s="17"/>
-      <c r="O105" s="17"/>
-      <c r="P105" s="17"/>
-      <c r="Q105" s="17"/>
-      <c r="R105" s="17"/>
-      <c r="S105" s="17"/>
-      <c r="T105" s="17"/>
-      <c r="U105" s="17"/>
-      <c r="V105" s="17"/>
-      <c r="W105" s="17"/>
-    </row>
-    <row r="106" spans="1:31" hidden="1" x14ac:dyDescent="0.25">
+        <v>810006</v>
+      </c>
+      <c r="C105" s="23" t="s">
+        <v>88</v>
+      </c>
+      <c r="D105" s="7">
+        <v>87</v>
+      </c>
+      <c r="E105" s="16" t="s">
+        <v>98</v>
+      </c>
+      <c r="F105" s="22"/>
+      <c r="G105" s="16">
+        <v>0</v>
+      </c>
+      <c r="H105" s="16">
+        <v>0</v>
+      </c>
+      <c r="I105" s="16">
+        <v>0</v>
+      </c>
+      <c r="J105" s="16">
+        <v>0</v>
+      </c>
+      <c r="K105" s="16">
+        <v>0</v>
+      </c>
+      <c r="L105" s="16">
+        <v>0</v>
+      </c>
+      <c r="M105" s="16">
+        <v>0</v>
+      </c>
+      <c r="N105" s="16">
+        <v>0</v>
+      </c>
+      <c r="O105" s="16">
+        <v>0</v>
+      </c>
+      <c r="P105" s="16">
+        <v>0</v>
+      </c>
+      <c r="Q105" s="16">
+        <v>0</v>
+      </c>
+      <c r="R105" s="16">
+        <v>0</v>
+      </c>
+      <c r="S105" s="16">
+        <v>0</v>
+      </c>
+      <c r="T105" s="16">
+        <v>0</v>
+      </c>
+      <c r="U105" s="16">
+        <v>0</v>
+      </c>
+      <c r="V105" s="16">
+        <v>0</v>
+      </c>
+      <c r="W105" s="16">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="106" spans="1:23" hidden="1" x14ac:dyDescent="0.25">
       <c r="A106" s="6"/>
       <c r="B106" s="11">
-        <v>810009</v>
+        <v>810007</v>
       </c>
       <c r="C106" s="3" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="D106" s="7"/>
       <c r="E106" s="16"/>
-      <c r="F106" s="17">
-        <v>1</v>
-      </c>
+      <c r="F106" s="17"/>
       <c r="G106" s="17"/>
       <c r="H106" s="17"/>
       <c r="I106" s="17"/>
@@ -5665,19 +5469,17 @@
       <c r="V106" s="17"/>
       <c r="W106" s="17"/>
     </row>
-    <row r="107" spans="1:31" ht="25.5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="107" spans="1:23" hidden="1" x14ac:dyDescent="0.25">
       <c r="A107" s="6"/>
       <c r="B107" s="11">
-        <v>810010</v>
+        <v>810008</v>
       </c>
       <c r="C107" s="3" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="D107" s="7"/>
       <c r="E107" s="16"/>
-      <c r="F107" s="22">
-        <v>1</v>
-      </c>
+      <c r="F107" s="17"/>
       <c r="G107" s="17"/>
       <c r="H107" s="17"/>
       <c r="I107" s="17"/>
@@ -5696,19 +5498,17 @@
       <c r="V107" s="17"/>
       <c r="W107" s="17"/>
     </row>
-    <row r="108" spans="1:31" hidden="1" x14ac:dyDescent="0.25">
+    <row r="108" spans="1:23" hidden="1" x14ac:dyDescent="0.25">
       <c r="A108" s="6"/>
       <c r="B108" s="11">
-        <v>820000</v>
+        <v>810009</v>
       </c>
       <c r="C108" s="3" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="D108" s="7"/>
       <c r="E108" s="16"/>
-      <c r="F108" s="17">
-        <v>1</v>
-      </c>
+      <c r="F108" s="17"/>
       <c r="G108" s="17"/>
       <c r="H108" s="17"/>
       <c r="I108" s="17"/>
@@ -5727,434 +5527,474 @@
       <c r="V108" s="17"/>
       <c r="W108" s="17"/>
     </row>
-    <row r="109" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="109" spans="1:23" ht="25.5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A109" s="6"/>
       <c r="B109" s="11">
-        <v>821000</v>
-      </c>
-      <c r="C109" s="23" t="s">
-        <v>126</v>
-      </c>
-      <c r="D109" s="7">
-        <v>83</v>
-      </c>
-      <c r="E109" s="16" t="s">
-        <v>96</v>
-      </c>
-      <c r="F109" s="22">
-        <v>1</v>
-      </c>
-      <c r="G109" s="16">
-        <v>0</v>
-      </c>
-      <c r="H109" s="16">
-        <v>0</v>
-      </c>
-      <c r="I109" s="16">
-        <v>0</v>
-      </c>
-      <c r="J109" s="16">
-        <v>0</v>
-      </c>
-      <c r="K109" s="16">
-        <v>0</v>
-      </c>
-      <c r="L109" s="16">
-        <v>0</v>
-      </c>
-      <c r="M109" s="16">
-        <v>0</v>
-      </c>
-      <c r="N109" s="16">
-        <v>0</v>
-      </c>
-      <c r="O109" s="16">
-        <v>0</v>
-      </c>
-      <c r="P109" s="16">
-        <v>0</v>
-      </c>
-      <c r="Q109" s="16">
-        <v>0</v>
-      </c>
-      <c r="R109" s="16">
-        <v>0</v>
-      </c>
-      <c r="S109" s="16">
-        <v>0</v>
-      </c>
-      <c r="T109" s="16">
-        <v>0</v>
-      </c>
-      <c r="U109" s="16">
-        <v>0</v>
-      </c>
-      <c r="V109" s="16">
-        <v>0</v>
-      </c>
-      <c r="W109" s="16">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="110" spans="1:31" x14ac:dyDescent="0.25">
+        <v>810010</v>
+      </c>
+      <c r="C109" s="3" t="s">
+        <v>92</v>
+      </c>
+      <c r="D109" s="7"/>
+      <c r="E109" s="16"/>
+      <c r="F109" s="17"/>
+      <c r="G109" s="17"/>
+      <c r="H109" s="17"/>
+      <c r="I109" s="17"/>
+      <c r="J109" s="17"/>
+      <c r="K109" s="17"/>
+      <c r="L109" s="17"/>
+      <c r="M109" s="17"/>
+      <c r="N109" s="17"/>
+      <c r="O109" s="17"/>
+      <c r="P109" s="17"/>
+      <c r="Q109" s="17"/>
+      <c r="R109" s="17"/>
+      <c r="S109" s="17"/>
+      <c r="T109" s="17"/>
+      <c r="U109" s="17"/>
+      <c r="V109" s="17"/>
+      <c r="W109" s="17"/>
+    </row>
+    <row r="110" spans="1:23" hidden="1" x14ac:dyDescent="0.25">
       <c r="A110" s="6"/>
       <c r="B110" s="11">
+        <v>820000</v>
+      </c>
+      <c r="C110" s="3" t="s">
+        <v>93</v>
+      </c>
+      <c r="D110" s="7"/>
+      <c r="E110" s="16"/>
+      <c r="F110" s="17"/>
+      <c r="G110" s="17"/>
+      <c r="H110" s="17"/>
+      <c r="I110" s="17"/>
+      <c r="J110" s="17"/>
+      <c r="K110" s="17"/>
+      <c r="L110" s="17"/>
+      <c r="M110" s="17"/>
+      <c r="N110" s="17"/>
+      <c r="O110" s="17"/>
+      <c r="P110" s="17"/>
+      <c r="Q110" s="17"/>
+      <c r="R110" s="17"/>
+      <c r="S110" s="17"/>
+      <c r="T110" s="17"/>
+      <c r="U110" s="17"/>
+      <c r="V110" s="17"/>
+      <c r="W110" s="17"/>
+    </row>
+    <row r="111" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A111" s="6"/>
+      <c r="B111" s="11">
+        <v>821000</v>
+      </c>
+      <c r="C111" s="23" t="s">
+        <v>129</v>
+      </c>
+      <c r="D111" s="7">
+        <v>83</v>
+      </c>
+      <c r="E111" s="16" t="s">
+        <v>98</v>
+      </c>
+      <c r="F111" s="22"/>
+      <c r="G111" s="16">
+        <v>0</v>
+      </c>
+      <c r="H111" s="16">
+        <v>0</v>
+      </c>
+      <c r="I111" s="16">
+        <v>0</v>
+      </c>
+      <c r="J111" s="16">
+        <v>0</v>
+      </c>
+      <c r="K111" s="16">
+        <v>0</v>
+      </c>
+      <c r="L111" s="16">
+        <v>0</v>
+      </c>
+      <c r="M111" s="16">
+        <v>0</v>
+      </c>
+      <c r="N111" s="16">
+        <v>0</v>
+      </c>
+      <c r="O111" s="16">
+        <v>0</v>
+      </c>
+      <c r="P111" s="16">
+        <v>0</v>
+      </c>
+      <c r="Q111" s="16">
+        <v>0</v>
+      </c>
+      <c r="R111" s="16">
+        <v>0</v>
+      </c>
+      <c r="S111" s="16">
+        <v>0</v>
+      </c>
+      <c r="T111" s="16">
+        <v>0</v>
+      </c>
+      <c r="U111" s="16">
+        <v>0</v>
+      </c>
+      <c r="V111" s="16">
+        <v>0</v>
+      </c>
+      <c r="W111" s="16">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="112" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A112" s="6"/>
+      <c r="B112" s="11">
         <v>821001</v>
       </c>
-      <c r="C110" s="23" t="s">
-        <v>132</v>
-      </c>
-      <c r="D110" s="7">
+      <c r="C112" s="23" t="s">
+        <v>135</v>
+      </c>
+      <c r="D112" s="7">
         <v>91</v>
       </c>
-      <c r="E110" s="16" t="s">
-        <v>96</v>
-      </c>
-      <c r="F110" s="17">
-        <v>1</v>
-      </c>
-      <c r="G110" s="16">
-        <v>0</v>
-      </c>
-      <c r="H110" s="16">
-        <v>0</v>
-      </c>
-      <c r="I110" s="16">
-        <v>0</v>
-      </c>
-      <c r="J110" s="16">
-        <v>0</v>
-      </c>
-      <c r="K110" s="16">
-        <v>0</v>
-      </c>
-      <c r="L110" s="16">
-        <v>0</v>
-      </c>
-      <c r="M110" s="16">
-        <v>0</v>
-      </c>
-      <c r="N110" s="16">
-        <v>0</v>
-      </c>
-      <c r="O110" s="16">
-        <v>0</v>
-      </c>
-      <c r="P110" s="16">
-        <v>0</v>
-      </c>
-      <c r="Q110" s="16">
-        <v>0</v>
-      </c>
-      <c r="R110" s="16">
-        <v>0</v>
-      </c>
-      <c r="S110" s="16">
-        <v>0</v>
-      </c>
-      <c r="T110" s="16">
-        <v>0</v>
-      </c>
-      <c r="U110" s="16">
-        <v>0</v>
-      </c>
-      <c r="V110" s="16">
-        <v>0</v>
-      </c>
-      <c r="W110" s="16">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="111" spans="1:31" s="43" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A111" s="37"/>
-      <c r="B111" s="38">
-        <v>821002</v>
-      </c>
-      <c r="C111" s="58" t="s">
-        <v>135</v>
-      </c>
-      <c r="D111" s="69">
+      <c r="E112" s="16" t="s">
+        <v>98</v>
+      </c>
+      <c r="F112" s="22"/>
+      <c r="G112" s="16">
+        <v>0</v>
+      </c>
+      <c r="H112" s="16">
+        <v>0</v>
+      </c>
+      <c r="I112" s="16">
+        <v>0</v>
+      </c>
+      <c r="J112" s="16">
+        <v>0</v>
+      </c>
+      <c r="K112" s="16">
+        <v>0</v>
+      </c>
+      <c r="L112" s="16">
+        <v>0</v>
+      </c>
+      <c r="M112" s="16">
+        <v>0</v>
+      </c>
+      <c r="N112" s="16">
+        <v>0</v>
+      </c>
+      <c r="O112" s="16">
+        <v>0</v>
+      </c>
+      <c r="P112" s="16">
+        <v>0</v>
+      </c>
+      <c r="Q112" s="16">
+        <v>0</v>
+      </c>
+      <c r="R112" s="16">
+        <v>0</v>
+      </c>
+      <c r="S112" s="16">
+        <v>0</v>
+      </c>
+      <c r="T112" s="16">
+        <v>0</v>
+      </c>
+      <c r="U112" s="16">
+        <v>0</v>
+      </c>
+      <c r="V112" s="16">
+        <v>0</v>
+      </c>
+      <c r="W112" s="16">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="113" spans="1:31" s="44" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A113" s="38"/>
+      <c r="B113" s="39">
+        <v>821004</v>
+      </c>
+      <c r="C113" s="59" t="s">
+        <v>139</v>
+      </c>
+      <c r="D113" s="41">
         <v>85</v>
       </c>
-      <c r="E111" s="41" t="s">
-        <v>96</v>
-      </c>
-      <c r="F111" s="22">
-        <v>1</v>
-      </c>
-      <c r="G111" s="41">
-        <v>0</v>
-      </c>
-      <c r="H111" s="41">
-        <v>0</v>
-      </c>
-      <c r="I111" s="41">
-        <v>0</v>
-      </c>
-      <c r="J111" s="41">
-        <v>0</v>
-      </c>
-      <c r="K111" s="41">
-        <v>0</v>
-      </c>
-      <c r="L111" s="41">
-        <v>0</v>
-      </c>
-      <c r="M111" s="41">
-        <v>0</v>
-      </c>
-      <c r="N111" s="41">
-        <v>0</v>
-      </c>
-      <c r="O111" s="41">
-        <v>1</v>
-      </c>
-      <c r="P111" s="41">
-        <v>1</v>
-      </c>
-      <c r="Q111" s="41">
-        <v>0</v>
-      </c>
-      <c r="R111" s="41">
-        <v>0</v>
-      </c>
-      <c r="S111" s="41">
-        <v>0</v>
-      </c>
-      <c r="T111" s="41">
-        <v>0</v>
-      </c>
-      <c r="U111" s="41">
-        <v>0</v>
-      </c>
-      <c r="V111" s="41">
-        <v>0</v>
-      </c>
-      <c r="W111" s="41">
-        <v>0</v>
-      </c>
-      <c r="X111" s="59"/>
-      <c r="Y111" s="59"/>
-      <c r="Z111" s="59"/>
-      <c r="AA111" s="59"/>
-      <c r="AB111" s="59"/>
-      <c r="AC111" s="59"/>
-      <c r="AD111" s="59"/>
-      <c r="AE111" s="59"/>
-    </row>
-    <row r="112" spans="1:31" s="43" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A112" s="37"/>
-      <c r="B112" s="38">
-        <v>821003</v>
-      </c>
-      <c r="C112" s="58" t="s">
+      <c r="E113" s="42" t="s">
+        <v>98</v>
+      </c>
+      <c r="F113" s="43"/>
+      <c r="G113" s="42">
+        <v>0</v>
+      </c>
+      <c r="H113" s="42">
+        <v>0</v>
+      </c>
+      <c r="I113" s="42">
+        <v>0</v>
+      </c>
+      <c r="J113" s="42">
+        <v>0</v>
+      </c>
+      <c r="K113" s="42">
+        <v>0</v>
+      </c>
+      <c r="L113" s="42">
+        <v>0</v>
+      </c>
+      <c r="M113" s="42">
+        <v>0</v>
+      </c>
+      <c r="N113" s="42">
+        <v>1</v>
+      </c>
+      <c r="O113" s="42">
+        <v>1</v>
+      </c>
+      <c r="P113" s="42">
+        <v>1</v>
+      </c>
+      <c r="Q113" s="42">
+        <v>0</v>
+      </c>
+      <c r="R113" s="42">
+        <v>0</v>
+      </c>
+      <c r="S113" s="42">
+        <v>0</v>
+      </c>
+      <c r="T113" s="42">
+        <v>0</v>
+      </c>
+      <c r="U113" s="42">
+        <v>0</v>
+      </c>
+      <c r="V113" s="42">
+        <v>0</v>
+      </c>
+      <c r="W113" s="42">
+        <v>0</v>
+      </c>
+      <c r="X113" s="60"/>
+      <c r="Y113" s="60"/>
+      <c r="Z113" s="60"/>
+      <c r="AA113" s="60"/>
+      <c r="AB113" s="60"/>
+      <c r="AC113" s="60"/>
+      <c r="AD113" s="60"/>
+      <c r="AE113" s="60"/>
+    </row>
+    <row r="114" spans="1:31" s="44" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A114" s="38"/>
+      <c r="B114" s="39">
+        <v>821005</v>
+      </c>
+      <c r="C114" s="59" t="s">
+        <v>140</v>
+      </c>
+      <c r="D114" s="41">
+        <v>86</v>
+      </c>
+      <c r="E114" s="42" t="s">
         <v>136</v>
       </c>
-      <c r="D112" s="69">
-        <v>86</v>
-      </c>
-      <c r="E112" s="41" t="s">
-        <v>96</v>
-      </c>
-      <c r="F112" s="22">
-        <v>1</v>
-      </c>
-      <c r="G112" s="41">
-        <v>0</v>
-      </c>
-      <c r="H112" s="41">
-        <v>0</v>
-      </c>
-      <c r="I112" s="41">
-        <v>0</v>
-      </c>
-      <c r="J112" s="41">
-        <v>0</v>
-      </c>
-      <c r="K112" s="41">
-        <v>1</v>
-      </c>
-      <c r="L112" s="41">
-        <v>1</v>
-      </c>
-      <c r="M112" s="41">
-        <v>1</v>
-      </c>
-      <c r="N112" s="41">
-        <v>1</v>
-      </c>
-      <c r="O112" s="41">
-        <v>0</v>
-      </c>
-      <c r="P112" s="41">
-        <v>0</v>
-      </c>
-      <c r="Q112" s="41">
-        <v>0</v>
-      </c>
-      <c r="R112" s="41">
-        <v>0</v>
-      </c>
-      <c r="S112" s="41">
-        <v>0</v>
-      </c>
-      <c r="T112" s="41">
-        <v>0</v>
-      </c>
-      <c r="U112" s="41">
-        <v>0</v>
-      </c>
-      <c r="V112" s="41">
-        <v>0</v>
-      </c>
-      <c r="W112" s="41">
-        <v>0</v>
-      </c>
-      <c r="X112" s="59"/>
-      <c r="Y112" s="59"/>
-      <c r="Z112" s="59"/>
-      <c r="AA112" s="59"/>
-      <c r="AB112" s="59"/>
-      <c r="AC112" s="59"/>
-      <c r="AD112" s="59"/>
-      <c r="AE112" s="59"/>
-    </row>
-    <row r="113" spans="1:31" s="43" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A113" s="37"/>
-      <c r="B113" s="38">
-        <v>821004</v>
-      </c>
-      <c r="C113" s="58" t="s">
-        <v>137</v>
-      </c>
-      <c r="D113" s="69">
+      <c r="F114" s="43"/>
+      <c r="G114" s="42">
+        <v>0</v>
+      </c>
+      <c r="H114" s="42">
+        <v>0</v>
+      </c>
+      <c r="I114" s="42">
+        <v>0</v>
+      </c>
+      <c r="J114" s="42">
+        <v>0</v>
+      </c>
+      <c r="K114" s="42">
+        <v>0</v>
+      </c>
+      <c r="L114" s="42">
+        <v>0</v>
+      </c>
+      <c r="M114" s="42">
+        <v>0</v>
+      </c>
+      <c r="N114" s="42">
+        <v>0</v>
+      </c>
+      <c r="O114" s="42">
+        <v>0</v>
+      </c>
+      <c r="P114" s="42">
+        <v>0</v>
+      </c>
+      <c r="Q114" s="42">
+        <v>0</v>
+      </c>
+      <c r="R114" s="42">
+        <v>0</v>
+      </c>
+      <c r="S114" s="42">
+        <v>0</v>
+      </c>
+      <c r="T114" s="42">
+        <v>0</v>
+      </c>
+      <c r="U114" s="42">
+        <v>0</v>
+      </c>
+      <c r="V114" s="42">
+        <v>0</v>
+      </c>
+      <c r="W114" s="42">
+        <v>0</v>
+      </c>
+      <c r="X114" s="60"/>
+      <c r="Y114" s="60"/>
+      <c r="Z114" s="60"/>
+      <c r="AA114" s="60"/>
+      <c r="AB114" s="60"/>
+      <c r="AC114" s="60"/>
+      <c r="AD114" s="60"/>
+      <c r="AE114" s="60"/>
+    </row>
+    <row r="115" spans="1:31" s="44" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A115" s="38"/>
+      <c r="B115" s="39">
+        <v>821006</v>
+      </c>
+      <c r="C115" s="59" t="s">
+        <v>141</v>
+      </c>
+      <c r="D115" s="41">
         <v>88</v>
       </c>
-      <c r="E113" s="41" t="s">
-        <v>96</v>
-      </c>
-      <c r="F113" s="22">
-        <v>1</v>
-      </c>
-      <c r="G113" s="41">
-        <v>0</v>
-      </c>
-      <c r="H113" s="41">
-        <v>0</v>
-      </c>
-      <c r="I113" s="41">
-        <v>0</v>
-      </c>
-      <c r="J113" s="41">
-        <v>0</v>
-      </c>
-      <c r="K113" s="41">
-        <v>1</v>
-      </c>
-      <c r="L113" s="41">
-        <v>1</v>
-      </c>
-      <c r="M113" s="41">
-        <v>1</v>
-      </c>
-      <c r="N113" s="41">
-        <v>1</v>
-      </c>
-      <c r="O113" s="41">
-        <v>0</v>
-      </c>
-      <c r="P113" s="41">
-        <v>0</v>
-      </c>
-      <c r="Q113" s="41">
-        <v>0</v>
-      </c>
-      <c r="R113" s="41">
-        <v>0</v>
-      </c>
-      <c r="S113" s="41">
-        <v>0</v>
-      </c>
-      <c r="T113" s="41">
-        <v>0</v>
-      </c>
-      <c r="U113" s="41">
-        <v>0</v>
-      </c>
-      <c r="V113" s="41">
-        <v>0</v>
-      </c>
-      <c r="W113" s="41">
-        <v>0</v>
-      </c>
-      <c r="X113" s="59"/>
-      <c r="Y113" s="59"/>
-      <c r="Z113" s="59"/>
-      <c r="AA113" s="59"/>
-      <c r="AB113" s="59"/>
-      <c r="AC113" s="59"/>
-      <c r="AD113" s="59"/>
-      <c r="AE113" s="59"/>
-    </row>
-    <row r="114" spans="1:31" ht="38.25" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A114" s="6"/>
-      <c r="B114" s="13" t="s">
-        <v>93</v>
-      </c>
-      <c r="C114" s="23" t="s">
+      <c r="E115" s="42"/>
+      <c r="F115" s="43"/>
+      <c r="G115" s="42">
+        <v>0</v>
+      </c>
+      <c r="H115" s="42">
+        <v>0</v>
+      </c>
+      <c r="I115" s="42">
+        <v>0</v>
+      </c>
+      <c r="J115" s="42">
+        <v>0</v>
+      </c>
+      <c r="K115" s="42">
+        <v>0</v>
+      </c>
+      <c r="L115" s="42">
+        <v>0</v>
+      </c>
+      <c r="M115" s="42">
+        <v>0</v>
+      </c>
+      <c r="N115" s="42">
+        <v>0</v>
+      </c>
+      <c r="O115" s="42">
+        <v>0</v>
+      </c>
+      <c r="P115" s="42">
+        <v>0</v>
+      </c>
+      <c r="Q115" s="42">
+        <v>0</v>
+      </c>
+      <c r="R115" s="42">
+        <v>0</v>
+      </c>
+      <c r="S115" s="42">
+        <v>0</v>
+      </c>
+      <c r="T115" s="42">
+        <v>0</v>
+      </c>
+      <c r="U115" s="42">
+        <v>0</v>
+      </c>
+      <c r="V115" s="42">
+        <v>0</v>
+      </c>
+      <c r="W115" s="42">
+        <v>0</v>
+      </c>
+      <c r="X115" s="60"/>
+      <c r="Y115" s="60"/>
+      <c r="Z115" s="60"/>
+      <c r="AA115" s="60"/>
+      <c r="AB115" s="60"/>
+      <c r="AC115" s="60"/>
+      <c r="AD115" s="60"/>
+      <c r="AE115" s="60"/>
+    </row>
+    <row r="116" spans="1:31" ht="38.25" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A116" s="6"/>
+      <c r="B116" s="13" t="s">
+        <v>94</v>
+      </c>
+      <c r="C116" s="23" t="s">
         <v>14</v>
       </c>
-      <c r="D114" s="7"/>
-      <c r="E114" s="16"/>
-      <c r="F114" s="22"/>
-      <c r="G114" s="16"/>
-      <c r="H114" s="16"/>
-      <c r="I114" s="16"/>
-      <c r="J114" s="16"/>
-      <c r="K114" s="16"/>
-      <c r="L114" s="16"/>
-      <c r="M114" s="16"/>
-      <c r="N114" s="16"/>
-      <c r="O114" s="16"/>
-      <c r="P114" s="16"/>
-      <c r="Q114" s="16"/>
-      <c r="R114" s="16"/>
-      <c r="S114" s="16"/>
-      <c r="T114" s="16"/>
-      <c r="U114" s="16"/>
-      <c r="V114" s="16"/>
-      <c r="W114" s="16"/>
-    </row>
-    <row r="115" spans="1:31" x14ac:dyDescent="0.25">
-      <c r="A115" s="1"/>
-      <c r="B115" s="15"/>
-      <c r="C115" s="25"/>
-      <c r="D115" s="9"/>
-      <c r="E115" s="16"/>
-      <c r="F115" s="22"/>
-      <c r="G115" s="16"/>
-      <c r="H115" s="16"/>
-      <c r="I115" s="16"/>
-      <c r="J115" s="16"/>
-      <c r="K115" s="16"/>
-      <c r="L115" s="16"/>
-      <c r="M115" s="16"/>
-      <c r="N115" s="16"/>
-      <c r="O115" s="16"/>
-      <c r="P115" s="16"/>
-      <c r="Q115" s="16"/>
-      <c r="R115" s="16"/>
-      <c r="S115" s="16"/>
-      <c r="T115" s="16"/>
-      <c r="U115" s="16"/>
-      <c r="V115" s="16"/>
-      <c r="W115" s="16"/>
-    </row>
-    <row r="116" spans="1:31" x14ac:dyDescent="0.25">
-      <c r="C116" s="26"/>
+      <c r="D116" s="7"/>
+      <c r="E116" s="16"/>
+      <c r="F116" s="22"/>
+      <c r="G116" s="16"/>
+      <c r="H116" s="16"/>
+      <c r="I116" s="16"/>
+      <c r="J116" s="16"/>
+      <c r="K116" s="16"/>
+      <c r="L116" s="16"/>
+      <c r="M116" s="16"/>
+      <c r="N116" s="16"/>
+      <c r="O116" s="16"/>
+      <c r="P116" s="16"/>
+      <c r="Q116" s="16"/>
+      <c r="R116" s="16"/>
+      <c r="S116" s="16"/>
+      <c r="T116" s="16"/>
+      <c r="U116" s="16"/>
+      <c r="V116" s="16"/>
+      <c r="W116" s="16"/>
     </row>
     <row r="117" spans="1:31" x14ac:dyDescent="0.25">
-      <c r="C117" s="26"/>
+      <c r="A117" s="1"/>
+      <c r="B117" s="15"/>
+      <c r="C117" s="25"/>
+      <c r="D117" s="9"/>
+      <c r="E117" s="16"/>
+      <c r="F117" s="22"/>
+      <c r="G117" s="16"/>
+      <c r="H117" s="16"/>
+      <c r="I117" s="16"/>
+      <c r="J117" s="16"/>
+      <c r="K117" s="16"/>
+      <c r="L117" s="16"/>
+      <c r="M117" s="16"/>
+      <c r="N117" s="16"/>
+      <c r="O117" s="16"/>
+      <c r="P117" s="16"/>
+      <c r="Q117" s="16"/>
+      <c r="R117" s="16"/>
+      <c r="S117" s="16"/>
+      <c r="T117" s="16"/>
+      <c r="U117" s="16"/>
+      <c r="V117" s="16"/>
+      <c r="W117" s="16"/>
     </row>
     <row r="118" spans="1:31" x14ac:dyDescent="0.25">
       <c r="C118" s="26"/>
@@ -6165,8 +6005,14 @@
     <row r="120" spans="1:31" x14ac:dyDescent="0.25">
       <c r="C120" s="26"/>
     </row>
+    <row r="121" spans="1:31" x14ac:dyDescent="0.25">
+      <c r="C121" s="26"/>
+    </row>
+    <row r="122" spans="1:31" x14ac:dyDescent="0.25">
+      <c r="C122" s="26"/>
+    </row>
   </sheetData>
-  <autoFilter ref="A4:W114" xr:uid="{00000000-0009-0000-0000-000000000000}">
+  <autoFilter ref="A4:W116" xr:uid="{00000000-0009-0000-0000-000000000000}">
     <filterColumn colId="3">
       <customFilters>
         <customFilter operator="notEqual" val=" "/>
